--- a/InputData/land/PLANAbPiaSY/Potential Land Area Newly Affected by Pol in a Single Yr.xlsx
+++ b/InputData/land/PLANAbPiaSY/Potential Land Area Newly Affected by Pol in a Single Yr.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28705"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="255" yWindow="0" windowWidth="25200" windowHeight="14295"/>
+    <workbookView xWindow="-7780" yWindow="-20940" windowWidth="31980" windowHeight="18260" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
   <definedNames>
     <definedName name="acres_per_million_hectares">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="145621" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="125">
   <si>
     <t>PLANAbPiaSY Potential Land Area Newly Affected by Policy in a Single Year</t>
   </si>
@@ -268,12 +268,6 @@
     <t xml:space="preserve">Reforestation rate is: </t>
   </si>
   <si>
-    <t>An addition 1.5x ha of reforestation/year is equivalent to</t>
-  </si>
-  <si>
-    <t>in 2050</t>
-  </si>
-  <si>
     <t xml:space="preserve">This is equivalent to </t>
   </si>
   <si>
@@ -389,6 +383,27 @@
   </si>
   <si>
     <t>not an area to be incrementally added to managed areas each year.</t>
+  </si>
+  <si>
+    <t>ha/year</t>
+  </si>
+  <si>
+    <t xml:space="preserve">To check that this is reasonable: </t>
+  </si>
+  <si>
+    <t>An additional 1.5x ha of reforestation/year is equivalent to</t>
+  </si>
+  <si>
+    <t>in total in 2050</t>
+  </si>
+  <si>
+    <t>Note:</t>
+  </si>
+  <si>
+    <t>34 years from 2016-2050</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Assume reforesting 11% of the land area of the prairies by 2050 is reasonable, so assume an increase in the current reforestation rate x1.5 is reasonable </t>
   </si>
 </sst>
 </file>
@@ -398,7 +413,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -432,6 +447,21 @@
     <font>
       <sz val="11"/>
       <color rgb="FF333333"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -478,7 +508,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="11">
+  <cellStyleXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -490,8 +520,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -521,8 +553,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="11">
+  <cellStyles count="13">
     <cellStyle name="Followed Hyperlink" xfId="1" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
@@ -533,6 +566,8 @@
     <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -834,19 +869,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A30" sqref="A29:E39"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="2" max="2" width="57.5703125" customWidth="1"/>
+    <col min="2" max="2" width="57.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -854,92 +891,92 @@
         <v>62</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2">
       <c r="B4" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2">
       <c r="B5" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2">
       <c r="B6" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2">
       <c r="B7" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:2">
       <c r="B9" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:2">
       <c r="B10" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:2">
       <c r="B11" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:2">
       <c r="B12" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:2">
       <c r="B14" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:2">
       <c r="B15" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:2">
       <c r="B16" s="5" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:5">
       <c r="B17" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
       <c r="B19" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:5">
       <c r="B20" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:5">
       <c r="B21" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:5">
       <c r="B22" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:5">
       <c r="A25" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:5">
       <c r="A26" t="s">
         <v>39</v>
       </c>
@@ -947,7 +984,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:5">
       <c r="B27" t="s">
         <v>40</v>
       </c>
@@ -955,7 +992,7 @@
         <v>2.47105</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:5">
       <c r="A29" s="13" t="s">
         <v>73</v>
       </c>
@@ -964,17 +1001,17 @@
       <c r="D29" s="17"/>
       <c r="E29" s="17"/>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:5">
       <c r="B30" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:5">
       <c r="C31" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:5">
       <c r="B32" s="1" t="s">
         <v>29</v>
       </c>
@@ -982,7 +1019,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:5">
       <c r="B33" t="s">
         <v>31</v>
       </c>
@@ -993,7 +1030,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="34" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="34" spans="2:5">
       <c r="B34" t="s">
         <v>32</v>
       </c>
@@ -1004,7 +1041,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="35" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="35" spans="2:5">
       <c r="B35" t="s">
         <v>33</v>
       </c>
@@ -1015,7 +1052,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="36" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="36" spans="2:5">
       <c r="B36" t="s">
         <v>34</v>
       </c>
@@ -1026,7 +1063,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="37" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="37" spans="2:5">
       <c r="B37" t="s">
         <v>35</v>
       </c>
@@ -1037,7 +1074,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="38" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="38" spans="2:5">
       <c r="B38" t="s">
         <v>36</v>
       </c>
@@ -1045,7 +1082,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="39" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="39" spans="2:5">
       <c r="B39" t="s">
         <v>37</v>
       </c>
@@ -1056,7 +1093,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="40" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="40" spans="2:5">
       <c r="B40" t="s">
         <v>38</v>
       </c>
@@ -1074,134 +1111,159 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B21"/>
+  <dimension ref="A1:C26"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A27" sqref="A27"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" style="5" customWidth="1"/>
+    <col min="1" max="1" width="22.5" style="5" customWidth="1"/>
     <col min="2" max="2" width="42" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="8.85546875" style="5"/>
+    <col min="3" max="3" width="11.1640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="8.83203125" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3">
       <c r="A1" s="5" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
       <c r="A2" s="15">
+        <f>A11*1.5*About!C27</f>
         <v>1519695.75</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3">
       <c r="A5" s="13" t="s">
         <v>77</v>
       </c>
       <c r="B5" s="14"/>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3">
       <c r="A6" s="5" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
       <c r="A7" s="5">
-        <v>520.5</v>
+        <f>About!C32</f>
+        <v>347</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3">
       <c r="A8" s="1">
-        <v>1286181525</v>
+        <f>A7*10^6*About!C27</f>
+        <v>857454350</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3">
       <c r="A10" s="5" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3">
       <c r="A11" s="5">
+        <f>About!C35*10^6</f>
         <v>410000</v>
       </c>
       <c r="B11" s="5" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="5" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="5">
+        <f>A11*34*1.5</f>
+        <v>20910000</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="23" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="5" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="18">
+        <f>A13/A23*100</f>
+        <v>11.697620700592937</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="B20" s="5" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="B21" s="14" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="10">
+        <v>1787543</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="5">
+        <f>A22*100</f>
+        <v>178754300</v>
+      </c>
+      <c r="B23" s="5" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A12" s="5" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A13" s="5">
-        <f>A11*35*1.5</f>
-        <v>21525000</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A14" s="5" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A15" s="18">
-        <f>A13/A21*100</f>
-        <v>12.041668368257435</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A17" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B18" s="5" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A19" s="14" t="s">
-        <v>82</v>
-      </c>
-      <c r="B19" s="14" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A20" s="10">
-        <v>1787543</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A21" s="5">
-        <f>A20*100</f>
-        <v>178754300</v>
-      </c>
-      <c r="B21" s="5" t="s">
-        <v>27</v>
+    <row r="25" spans="1:2">
+      <c r="A25" s="5" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="5" t="s">
+        <v>124</v>
       </c>
     </row>
   </sheetData>
@@ -1219,19 +1281,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B22"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="15.85546875" customWidth="1"/>
+    <col min="1" max="1" width="15.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="12.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" ht="13" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2">
       <c r="A2">
         <f>About!C36</f>
         <v>0.72</v>
@@ -1240,7 +1304,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2">
       <c r="A3">
         <f>A2*10^6*About!C27</f>
         <v>1779156</v>
@@ -1249,67 +1313,67 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2">
       <c r="A7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2">
       <c r="A8" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:2">
       <c r="A9" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:2">
       <c r="A10" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:2">
       <c r="A11" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:2">
       <c r="A12" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:2">
       <c r="A13" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" ht="14.45" x14ac:dyDescent="0.35">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
       <c r="A15" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="14.45" x14ac:dyDescent="0.35">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
       <c r="A17" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:2">
       <c r="A19" s="6">
         <v>0.02</v>
       </c>
@@ -1317,7 +1381,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:2">
       <c r="A21" s="11">
         <f>A3*A19</f>
         <v>35583.120000000003</v>
@@ -1326,7 +1390,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:2">
       <c r="A22" s="3"/>
     </row>
   </sheetData>
@@ -1344,35 +1408,37 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="9.140625" customWidth="1"/>
-    <col min="2" max="2" width="15.85546875" customWidth="1"/>
+    <col min="1" max="1" width="9.1640625" customWidth="1"/>
+    <col min="2" max="2" width="15.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2">
       <c r="A4" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2">
       <c r="A7">
         <f>About!C33</f>
         <v>0.03</v>
@@ -1381,7 +1447,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2">
       <c r="A8" s="1">
         <f>A7*10^6*About!C27</f>
         <v>74131.5</v>
@@ -1404,39 +1470,41 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F33"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A3" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="A34" sqref="A34"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="23.42578125" customWidth="1"/>
-    <col min="2" max="2" width="17.5703125" style="4" customWidth="1"/>
-    <col min="3" max="3" width="16.85546875" customWidth="1"/>
-    <col min="4" max="4" width="12.85546875" style="4" customWidth="1"/>
-    <col min="5" max="5" width="18.42578125" customWidth="1"/>
-    <col min="6" max="6" width="8.85546875" style="4"/>
+    <col min="1" max="1" width="23.5" customWidth="1"/>
+    <col min="2" max="2" width="17.5" style="4" customWidth="1"/>
+    <col min="3" max="3" width="16.83203125" customWidth="1"/>
+    <col min="4" max="4" width="12.83203125" style="4" customWidth="1"/>
+    <col min="5" max="5" width="18.5" customWidth="1"/>
+    <col min="6" max="6" width="8.83203125" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4">
       <c r="A6">
         <v>232</v>
       </c>
@@ -1450,12 +1518,12 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4">
       <c r="A7" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4">
       <c r="A8" s="7">
         <f>About!C34</f>
         <v>166</v>
@@ -1470,12 +1538,12 @@
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4">
       <c r="A9" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4">
       <c r="A10">
         <f>A6-A8</f>
         <v>66</v>
@@ -1484,7 +1552,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4">
       <c r="A11" s="5">
         <f>A10*10^6*About!C27</f>
         <v>163089300</v>
@@ -1493,93 +1561,93 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
       <c r="A17" s="5" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
       <c r="A19" s="21">
         <v>0.5</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
       <c r="A23" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+    <row r="26" spans="1:2">
+      <c r="A26" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+    <row r="27" spans="1:2">
+      <c r="A27" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2">
       <c r="A28" s="21">
         <v>0.11</v>
       </c>
       <c r="B28" s="4" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2">
       <c r="A33" s="11">
         <f>A11*A19*A28</f>
         <v>8969911.5</v>
@@ -1605,13 +1673,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="27.7109375" style="5" customWidth="1"/>
-    <col min="2" max="16384" width="10.85546875" style="5"/>
+    <col min="1" max="1" width="27.6640625" style="5" customWidth="1"/>
+    <col min="2" max="16384" width="10.83203125" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2">
       <c r="A1" s="5" t="s">
         <v>53</v>
       </c>
@@ -1619,17 +1687,17 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2">
       <c r="A2" s="8" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2">
       <c r="A3" s="8" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2">
       <c r="A5" s="5" t="s">
         <v>53</v>
       </c>
@@ -1637,12 +1705,12 @@
         <v>52</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2">
       <c r="A6" s="5" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2">
       <c r="A7" s="5" t="s">
         <v>55</v>
       </c>
@@ -1650,7 +1718,7 @@
         <v>0.57999999999999996</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2">
       <c r="A8" s="3" t="s">
         <v>56</v>
       </c>
@@ -1658,7 +1726,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:2">
       <c r="A9" s="3" t="s">
         <v>57</v>
       </c>
@@ -1666,7 +1734,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:2">
       <c r="A10" s="3" t="s">
         <v>58</v>
       </c>
@@ -1674,12 +1742,12 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:2">
       <c r="A12" s="5" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:2">
       <c r="A13" s="5">
         <f>29744*B9</f>
         <v>4461.5999999999995</v>
@@ -1688,7 +1756,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:2">
       <c r="A14" s="12">
         <f>A13*About!C27</f>
         <v>11024.836679999999</v>
@@ -1697,46 +1765,46 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:2">
       <c r="A15" s="12"/>
     </row>
-    <row r="16" spans="1:2" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:2">
       <c r="A16" s="12" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="14.45" x14ac:dyDescent="0.35">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
       <c r="A17" s="16">
         <f>A14/34</f>
         <v>324.25990235294114</v>
       </c>
       <c r="B17" s="5" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="5" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="14.45" x14ac:dyDescent="0.35">
-      <c r="A19" s="5" t="s">
+    <row r="20" spans="1:2">
+      <c r="A20" s="5" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="5" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="14.45" x14ac:dyDescent="0.35">
-      <c r="A20" s="5" t="s">
+    <row r="22" spans="1:2">
+      <c r="A22" s="5" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="14.45" x14ac:dyDescent="0.35">
-      <c r="A21" s="5" t="s">
+    <row r="23" spans="1:2">
+      <c r="A23" s="5" t="s">
         <v>97</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" ht="14.45" x14ac:dyDescent="0.35">
-      <c r="A22" s="5" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" ht="14.45" x14ac:dyDescent="0.35">
-      <c r="A23" s="5" t="s">
-        <v>99</v>
       </c>
     </row>
   </sheetData>
@@ -1756,14 +1824,14 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2">
       <c r="A2">
         <f>About!C37+About!C39</f>
         <v>24.2</v>
@@ -1772,7 +1840,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2">
       <c r="A3">
         <f>A2*10^6*About!C27</f>
         <v>59799410</v>
@@ -1781,24 +1849,24 @@
         <v>60</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2">
       <c r="A5" s="7" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
         <v>85</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -1820,13 +1888,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="29.42578125" customWidth="1"/>
-    <col min="2" max="36" width="13.5703125" customWidth="1"/>
+    <col min="1" max="1" width="29.5" customWidth="1"/>
+    <col min="2" max="36" width="13.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:36">
       <c r="B1" s="2">
         <v>2016</v>
       </c>
@@ -1933,7 +2001,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:36">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -2078,7 +2146,7 @@
         <v>35583.120000000003</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:36">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -2223,7 +2291,7 @@
         <v>1519695.75</v>
       </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:36">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -2368,7 +2436,7 @@
         <v>8969911.5</v>
       </c>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:36">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -2513,7 +2581,7 @@
         <v>74131.5</v>
       </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:36">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -2658,7 +2726,7 @@
         <v>324.25990235294114</v>
       </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:36">
       <c r="A7" t="s">
         <v>7</v>
       </c>

--- a/InputData/land/PLANAbPiaSY/Potential Land Area Newly Affected by Pol in a Single Yr.xlsx
+++ b/InputData/land/PLANAbPiaSY/Potential Land Area Newly Affected by Pol in a Single Yr.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25217"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26227"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://pembinainstitute.sharepoint.com/sites/PRO-EnergyPolicySimulator2021/Shared Documents/Research and Analysis/CANADA-inputData/land/PLANAbPiaSY/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="77" documentId="8_{74B7E32C-CC73-AD40-9E0E-6148B3B06460}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3EF15D97-63C0-4EA0-82AA-67CB9B6B2EE8}"/>
+  <xr:revisionPtr revIDLastSave="265" documentId="8_{74B7E32C-CC73-AD40-9E0E-6148B3B06460}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{79BFA65A-CEA7-428D-866E-C43A2834D735}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15840" firstSheet="4" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
   <definedNames>
     <definedName name="acres_per_million_hectares">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="191028" concurrentCalc="0"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="129">
   <si>
     <t>PLANAbPiaSY Potential Land Area Newly Affected by Policy in a Single Year</t>
   </si>
@@ -59,18 +59,9 @@
     <t xml:space="preserve">The State of Canada's Forests </t>
   </si>
   <si>
-    <t>Annual Report 2019</t>
-  </si>
-  <si>
-    <t>https://cfs.nrcan.gc.ca/publications/download-pdf/40084</t>
-  </si>
-  <si>
     <t xml:space="preserve">Inventory and land-use change </t>
   </si>
   <si>
-    <t>http://www.nrcan.gc.ca/forests/climate-change/carbon-accounting/13111</t>
-  </si>
-  <si>
     <t xml:space="preserve">(for total area of managed forest) </t>
   </si>
   <si>
@@ -113,9 +104,6 @@
     <t>NR Can Data:</t>
   </si>
   <si>
-    <t>State of Canada's Forests 2019</t>
-  </si>
-  <si>
     <t>million ha</t>
   </si>
   <si>
@@ -239,9 +227,6 @@
     <t>present scale by 2% of its current level per year.  The model run</t>
   </si>
   <si>
-    <t>period (2017-2050) is 34 years long, so if the policy were to</t>
-  </si>
-  <si>
     <t>be implemented in full strength throughout the entire model run,</t>
   </si>
   <si>
@@ -278,9 +263,6 @@
     <t>not an area to be incrementally added to managed areas each year.</t>
   </si>
   <si>
-    <t>Area of managed forest</t>
-  </si>
-  <si>
     <t xml:space="preserve">million ha </t>
   </si>
   <si>
@@ -290,9 +272,6 @@
     <t xml:space="preserve">Area certified as sustainably managed </t>
   </si>
   <si>
-    <t>https://d1ied5g1xfgpx8.cloudfront.net/pdfs/40084.pdf</t>
-  </si>
-  <si>
     <t xml:space="preserve">Area that could be managed better </t>
   </si>
   <si>
@@ -314,30 +293,6 @@
     <t>share of forest that is suitable for improved management</t>
   </si>
   <si>
-    <t>We also must account for limited manpower, equipment, and the accessibility of</t>
-  </si>
-  <si>
-    <t>forest to be managed.  Canada has more forest land than the U.S., but much of it</t>
-  </si>
-  <si>
-    <t>is difficult to access, particularly in the far north.  Nonetheless, we assume sufficient</t>
-  </si>
-  <si>
-    <t>access to forest, such thatt the limiting factor on forest management is availability of</t>
-  </si>
-  <si>
-    <t>equipment and manpower.  We estimate availability of equipment and manpower</t>
-  </si>
-  <si>
-    <t>by population, using the using the Canada-to-U.S. population ratio to further adjust</t>
-  </si>
-  <si>
-    <t>the 50% figure taken from the U.S. model above.</t>
-  </si>
-  <si>
-    <t>Canada-to-US population ratio</t>
-  </si>
-  <si>
     <t>Accounting for the two factors above, the area that could be managed for</t>
   </si>
   <si>
@@ -347,9 +302,6 @@
     <t>Peatlands cover 113.6 million hectares in Canada, or around 13 % of the country’s surface area and are present in all provinces. </t>
   </si>
   <si>
-    <t>From that, 30,900 hectares have been or are currently harvested, which represents only 0.03% of the natural capital</t>
-  </si>
-  <si>
     <t>Out of 29744 ha</t>
   </si>
   <si>
@@ -426,16 +378,72 @@
   </si>
   <si>
     <t>forest restoration</t>
+  </si>
+  <si>
+    <t>period (2019-2050) is 34 years long, so if the policy were to</t>
+  </si>
+  <si>
+    <t>Annual Report 2022</t>
+  </si>
+  <si>
+    <t>https://natural-resources.canada.ca/climate-change-adapting-impacts-and-reducing-emissions/climate-change-impacts-forests/carbon-accounting/inventory-and-land-use-change/13111#inventory</t>
+  </si>
+  <si>
+    <t>Date modified: 2022-04-14</t>
+  </si>
+  <si>
+    <t>https://natural-resources.canada.ca/sites/nrcan/files/forest/sof2022/SoF_Annual2022_EN_access.pdf</t>
+  </si>
+  <si>
+    <t>State of Canada's Forests 2022</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Hectares</t>
+  </si>
+  <si>
+    <t>protected (9.1%)</t>
+  </si>
+  <si>
+    <t>—</t>
+  </si>
+  <si>
+    <t>data year</t>
+  </si>
+  <si>
+    <t>Other wooded land</t>
+  </si>
+  <si>
+    <t>Other land with tree cover</t>
+  </si>
+  <si>
+    <t>From that, 34,000 hectares have been or are currently harvested, which represents only 0.03% of the natural capital</t>
+  </si>
+  <si>
+    <t>https://peatmoss.com/statistics/</t>
+  </si>
+  <si>
+    <t>(Updated with Peatmoss statistic)</t>
+  </si>
+  <si>
+    <t>Unable to verify reference</t>
+  </si>
+  <si>
+    <t>Total forest inventory in Canada</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="3">
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="0.0"/>
+    <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -489,6 +497,27 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -531,7 +560,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="14">
+  <cellStyleXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -546,8 +575,9 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -571,11 +601,27 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="13"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="14" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="13" applyFill="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="4" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="4" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="14">
+  <cellStyles count="15">
+    <cellStyle name="Comma" xfId="14" builtinId="3"/>
     <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -891,23 +937,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E40"/>
+  <dimension ref="A1:F55"/>
   <sheetViews>
-    <sheetView topLeftCell="A20" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="57.42578125" customWidth="1"/>
+    <col min="2" max="2" width="62" customWidth="1"/>
+    <col min="3" max="3" width="12.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -915,225 +962,417 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B6" s="17" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
-      <c r="B6" s="18" t="s">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B11" s="17" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
-      <c r="B9" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="B10" t="s">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B14" s="21" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
-      <c r="B11" s="18" t="s">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B15" s="21" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
-      <c r="B12" t="s">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B16" s="24" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
-      <c r="B14" t="s">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B17" s="21" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
-      <c r="B15" t="s">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
-      <c r="B16" t="s">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
-      <c r="B17" t="s">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B21" s="17" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
-      <c r="B19" t="s">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
-      <c r="B20" t="s">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
-      <c r="B21" s="18" t="s">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="22" spans="1:5">
-      <c r="B22" t="s">
+      <c r="B26" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
-      <c r="A25" s="1" t="s">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
         <v>17</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
-      <c r="A26" t="s">
-        <v>18</v>
-      </c>
-      <c r="B26" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
-      <c r="B27" t="s">
-        <v>20</v>
       </c>
       <c r="C27">
         <v>2.47105</v>
       </c>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="9" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B29" s="10"/>
       <c r="C29" s="10"/>
       <c r="D29" s="10"/>
       <c r="E29" s="10"/>
     </row>
-    <row r="30" spans="1:5">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C31" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B32" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C32" s="25">
+        <f>$D$45</f>
+        <v>361.732641</v>
+      </c>
+    </row>
+    <row r="33" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B33" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="31" spans="1:5">
-      <c r="C31" s="1" t="s">
+      <c r="C33" s="26">
+        <f t="shared" ref="C33:C39" si="0">D49</f>
+        <v>4.9352E-2</v>
+      </c>
+      <c r="E33" s="27">
+        <f>F49</f>
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="34" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B34" t="s">
         <v>23</v>
       </c>
-      <c r="E31" s="1" t="s">
+      <c r="C34" s="26">
+        <f t="shared" si="0"/>
+        <v>158.39145600000001</v>
+      </c>
+      <c r="E34" s="27">
+        <f t="shared" ref="E34:E39" si="1">F50</f>
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="35" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B35" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="32" spans="1:5">
-      <c r="B32" s="1" t="s">
+      <c r="C35" s="26">
+        <f t="shared" si="0"/>
+        <v>0.451573</v>
+      </c>
+      <c r="E35" s="27">
+        <f t="shared" si="1"/>
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="36" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B36" t="s">
         <v>25</v>
       </c>
-      <c r="C32">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="33" spans="2:5">
-      <c r="B33" t="s">
+      <c r="C36" s="26">
+        <f t="shared" si="0"/>
+        <v>0.71033299999999999</v>
+      </c>
+      <c r="E36" s="27">
+        <f t="shared" si="1"/>
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="37" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B37" t="s">
         <v>26</v>
       </c>
-      <c r="C33">
-        <f>35385/1000000</f>
-        <v>3.5385E-2</v>
-      </c>
-      <c r="E33">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="34" spans="2:5">
-      <c r="B34" t="s">
+      <c r="C37" s="26">
+        <f t="shared" si="0"/>
+        <v>4.3075200000000002</v>
+      </c>
+      <c r="E37" s="27">
+        <f t="shared" si="1"/>
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="38" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B38" t="s">
         <v>27</v>
       </c>
-      <c r="C34">
-        <v>164</v>
-      </c>
-      <c r="E34">
-        <v>2018</v>
-      </c>
-    </row>
-    <row r="35" spans="2:5">
-      <c r="B35" t="s">
+      <c r="C38" s="26">
+        <f t="shared" si="0"/>
+        <v>32.917670331000004</v>
+      </c>
+      <c r="E38" s="27" t="str">
+        <f t="shared" si="1"/>
+        <v>—</v>
+      </c>
+    </row>
+    <row r="39" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B39" t="s">
         <v>28</v>
       </c>
-      <c r="C35">
-        <f>396000/1000000</f>
-        <v>0.39600000000000002</v>
-      </c>
-      <c r="E35">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="36" spans="2:5">
-      <c r="B36" t="s">
+      <c r="C39" s="26">
+        <f t="shared" si="0"/>
+        <v>17.768618</v>
+      </c>
+      <c r="E39" s="27">
+        <f t="shared" si="1"/>
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="40" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B40" t="s">
         <v>29</v>
       </c>
-      <c r="C36">
-        <f>755884/1000000</f>
-        <v>0.755884</v>
-      </c>
-      <c r="E36">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="37" spans="2:5">
-      <c r="B37" t="s">
-        <v>30</v>
-      </c>
-      <c r="C37">
-        <v>2.2719999999999998</v>
-      </c>
-      <c r="E37">
-        <v>2018</v>
-      </c>
-    </row>
-    <row r="38" spans="2:5">
-      <c r="B38" t="s">
-        <v>31</v>
-      </c>
-      <c r="C38">
-        <v>29.5</v>
-      </c>
-      <c r="E38">
-        <v>2016</v>
-      </c>
-    </row>
-    <row r="39" spans="2:5">
-      <c r="B39" t="s">
-        <v>32</v>
-      </c>
-      <c r="C39">
-        <v>15.628</v>
-      </c>
-      <c r="E39">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="40" spans="2:5">
-      <c r="B40" t="s">
-        <v>33</v>
+      <c r="C40" s="20">
+        <f>SUM(C33:C39)</f>
+        <v>214.59652233100002</v>
+      </c>
+    </row>
+    <row r="43" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B43" t="s">
+        <v>116</v>
+      </c>
+      <c r="C43" t="s">
+        <v>118</v>
+      </c>
+      <c r="D43" t="s">
+        <v>19</v>
+      </c>
+      <c r="F43" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="45" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B45" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C45" s="22">
+        <v>361732641</v>
+      </c>
+      <c r="D45" s="25">
+        <f>C45/10^6</f>
+        <v>361.732641</v>
+      </c>
+      <c r="F45" s="27">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="46" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B46" t="s">
+        <v>122</v>
+      </c>
+      <c r="C46" s="22">
+        <v>36249346</v>
+      </c>
+      <c r="D46" s="25">
+        <f t="shared" ref="D46:D47" si="2">C46/10^6</f>
+        <v>36.249346000000003</v>
+      </c>
+      <c r="F46" s="27">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="47" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B47" t="s">
+        <v>123</v>
+      </c>
+      <c r="C47" s="22">
+        <v>12662714</v>
+      </c>
+      <c r="D47" s="25">
+        <f t="shared" si="2"/>
+        <v>12.662713999999999</v>
+      </c>
+      <c r="F47" s="27">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="48" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="D48" s="25"/>
+      <c r="F48" s="27"/>
+    </row>
+    <row r="49" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B49" t="s">
+        <v>22</v>
+      </c>
+      <c r="C49" s="22">
+        <v>49352</v>
+      </c>
+      <c r="D49" s="25">
+        <f t="shared" ref="D49:D55" si="3">C49/10^6</f>
+        <v>4.9352E-2</v>
+      </c>
+      <c r="F49" s="27">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="50" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B50" t="s">
+        <v>23</v>
+      </c>
+      <c r="C50" s="22">
+        <v>158391456</v>
+      </c>
+      <c r="D50" s="25">
+        <f t="shared" si="3"/>
+        <v>158.39145600000001</v>
+      </c>
+      <c r="F50" s="27">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="51" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B51" t="s">
+        <v>24</v>
+      </c>
+      <c r="C51" s="22">
+        <f>442363+9210</f>
+        <v>451573</v>
+      </c>
+      <c r="D51" s="25">
+        <f t="shared" si="3"/>
+        <v>0.451573</v>
+      </c>
+      <c r="F51" s="27">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="52" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B52" t="s">
+        <v>25</v>
+      </c>
+      <c r="C52" s="22">
+        <v>710333</v>
+      </c>
+      <c r="D52" s="25">
+        <f t="shared" si="3"/>
+        <v>0.71033299999999999</v>
+      </c>
+      <c r="F52" s="27">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="53" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B53" t="s">
+        <v>26</v>
+      </c>
+      <c r="C53" s="22">
+        <v>4307520</v>
+      </c>
+      <c r="D53" s="25">
+        <f t="shared" si="3"/>
+        <v>4.3075200000000002</v>
+      </c>
+      <c r="F53" s="27">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="54" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B54" t="s">
+        <v>119</v>
+      </c>
+      <c r="C54" s="22">
+        <f>C45*0.091</f>
+        <v>32917670.331</v>
+      </c>
+      <c r="D54" s="25">
+        <f t="shared" si="3"/>
+        <v>32.917670331000004</v>
+      </c>
+      <c r="F54" s="27" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="55" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B55" t="s">
+        <v>28</v>
+      </c>
+      <c r="C55" s="22">
+        <v>17768618</v>
+      </c>
+      <c r="D55" s="25">
+        <f t="shared" si="3"/>
+        <v>17.768618</v>
+      </c>
+      <c r="F55" s="27">
+        <v>2020</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B6" r:id="rId1" xr:uid="{936CDEAD-90A1-4125-A2EB-D0159B6318BA}"/>
-    <hyperlink ref="B11" r:id="rId2" xr:uid="{52F0A99D-A982-463C-BF36-F1B8EC31F862}"/>
-    <hyperlink ref="B21" r:id="rId3" xr:uid="{C1064EB9-DA5C-40B2-A6AC-24EE76CDD873}"/>
+    <hyperlink ref="B11" r:id="rId1" location="inventory" xr:uid="{52F0A99D-A982-463C-BF36-F1B8EC31F862}"/>
+    <hyperlink ref="B21" r:id="rId2" xr:uid="{C1064EB9-DA5C-40B2-A6AC-24EE76CDD873}"/>
+    <hyperlink ref="B16" r:id="rId3" xr:uid="{790EC34A-9BA0-46D3-AF31-0087EAF82408}"/>
+    <hyperlink ref="B6" r:id="rId4" xr:uid="{17D5156F-E7E6-414B-AB4B-3B8AF72153E3}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait"/>
+  <pageSetup orientation="portrait" r:id="rId5"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -1146,159 +1385,162 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C26"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScale="118" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView topLeftCell="A15" zoomScale="118" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="22.42578125" customWidth="1"/>
     <col min="2" max="2" width="42" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="11">
         <f>A11*1.5*About!C27</f>
-        <v>1467803.7</v>
+        <v>1673789.1924749999</v>
       </c>
       <c r="B2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B5" s="10"/>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7">
         <f>About!C32</f>
-        <v>347</v>
+        <v>361.732641</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <f>A7*10^6*About!C27</f>
-        <v>857454350</v>
+        <v>893859442.54304993</v>
       </c>
       <c r="B8" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11">
         <f>About!C35*10^6</f>
-        <v>396000</v>
+        <v>451573</v>
       </c>
       <c r="B11" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13">
         <f>A11*34*1.5</f>
-        <v>20196000</v>
+        <v>23030223</v>
       </c>
       <c r="B13" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C13" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="16" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="13">
         <f>A13/A23*100</f>
-        <v>11.298189749840983</v>
+        <v>12.883730908850863</v>
       </c>
       <c r="B17" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>42</v>
+      </c>
+      <c r="B19" s="17" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="10" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" t="s">
+      <c r="B21" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="B19" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="B20" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="B21" s="10" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="6">
         <v>1787543</v>
       </c>
       <c r="B22" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23">
         <f>A22*100</f>
         <v>178754300</v>
       </c>
       <c r="B23" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B19" r:id="rId1" xr:uid="{12B0898D-1A40-406C-A6A4-4A957CC631CE}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
@@ -1311,115 +1553,184 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:B21"/>
+  <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+    <sheetView topLeftCell="A8" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="12.95" customHeight="1">
+    <row r="1" spans="1:6" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
         <f>About!C36</f>
-        <v>0.755884</v>
+        <v>0.71033299999999999</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
         <f>A2*10^6*About!C27</f>
-        <v>1867827.1581999999</v>
+        <v>1755268.35965</v>
       </c>
       <c r="B3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="B6" s="21"/>
+      <c r="C6" s="21"/>
+      <c r="D6" s="21"/>
+      <c r="E6" s="21"/>
+      <c r="F6" s="21"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="B7" s="21"/>
+      <c r="C7" s="21"/>
+      <c r="D7" s="21"/>
+      <c r="E7" s="21"/>
+      <c r="F7" s="21"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="B8" s="21"/>
+      <c r="C8" s="21"/>
+      <c r="D8" s="21"/>
+      <c r="E8" s="21"/>
+      <c r="F8" s="21"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="B9" s="21"/>
+      <c r="C9" s="21"/>
+      <c r="D9" s="21"/>
+      <c r="E9" s="21"/>
+      <c r="F9" s="21"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="21" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" t="s">
+      <c r="B10" s="21"/>
+      <c r="C10" s="21"/>
+      <c r="D10" s="21"/>
+      <c r="E10" s="21"/>
+      <c r="F10" s="21"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="21" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" t="s">
+      <c r="B11" s="21"/>
+      <c r="C11" s="21"/>
+      <c r="D11" s="21"/>
+      <c r="E11" s="21"/>
+      <c r="F11" s="21"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="21" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" t="s">
+      <c r="B12" s="21"/>
+      <c r="C12" s="21"/>
+      <c r="D12" s="21"/>
+      <c r="E12" s="21"/>
+      <c r="F12" s="21"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="21" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" t="s">
+      <c r="B13" s="21"/>
+      <c r="C13" s="21"/>
+      <c r="D13" s="21"/>
+      <c r="E13" s="21"/>
+      <c r="F13" s="21"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="21" t="s">
+        <v>111</v>
+      </c>
+      <c r="B14" s="21"/>
+      <c r="C14" s="21"/>
+      <c r="D14" s="21"/>
+      <c r="E14" s="21"/>
+      <c r="F14" s="21"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="21" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" t="s">
+      <c r="B15" s="21"/>
+      <c r="C15" s="21"/>
+      <c r="D15" s="21"/>
+      <c r="E15" s="21"/>
+      <c r="F15" s="21"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="21" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" t="s">
+      <c r="B16" s="21"/>
+      <c r="C16" s="21"/>
+      <c r="D16" s="21"/>
+      <c r="E16" s="21"/>
+      <c r="F16" s="21"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="21" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" t="s">
+      <c r="B17" s="21"/>
+      <c r="C17" s="21"/>
+      <c r="D17" s="21"/>
+      <c r="E17" s="21"/>
+      <c r="F17" s="21"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="21"/>
+      <c r="B18" s="21"/>
+      <c r="C18" s="21"/>
+      <c r="D18" s="21"/>
+      <c r="E18" s="21"/>
+      <c r="F18" s="21"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="4">
+        <f>2%*(2050-2019)</f>
+        <v>0.62</v>
+      </c>
+      <c r="B19" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
-      <c r="A14" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" s="4">
-        <v>0.02</v>
-      </c>
-      <c r="B19" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="7">
         <f>A3*A19</f>
-        <v>37356.543164000002</v>
+        <v>1088266.382983</v>
       </c>
       <c r="B21" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -1438,51 +1749,51 @@
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" customWidth="1"/>
     <col min="2" max="2" width="15.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7">
         <f>About!C33</f>
-        <v>3.5385E-2</v>
+        <v>4.9352E-2</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <f>A7*10^6*About!C27</f>
-        <v>87438.104250000004</v>
+        <v>121951.2596</v>
       </c>
       <c r="B8" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -1497,13 +1808,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:F33"/>
+  <dimension ref="A1:F25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="23.42578125" customWidth="1"/>
     <col min="2" max="2" width="17.42578125" style="3" customWidth="1"/>
@@ -1513,185 +1824,143 @@
     <col min="6" max="6" width="8.85546875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="29">
+        <f>About!D45+About!D46+'Impr Forest Mgmt'!D47</f>
+        <v>397.981987</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C6" t="s">
+        <v>73</v>
+      </c>
+      <c r="D6" s="17" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
-      <c r="A2" t="s">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="25">
+        <f>About!C34</f>
+        <v>158.39145600000001</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" t="s">
+        <v>73</v>
+      </c>
+      <c r="D8" s="17" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
-      <c r="A3" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="17">
-        <v>232</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="C6" t="s">
-        <v>79</v>
-      </c>
-      <c r="D6" s="18" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8">
-        <f>About!C34</f>
-        <v>164</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" t="s">
-        <v>79</v>
-      </c>
-      <c r="D8" s="18" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10">
         <f>A6-A8</f>
-        <v>68</v>
+        <v>239.590531</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="22">
         <f>A10*10^6*About!C27</f>
-        <v>168031400</v>
+        <v>592040181.62755001</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="14">
         <v>0.5</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
-      <c r="A24" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
-      <c r="A25" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
-      <c r="A26" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
-      <c r="A27" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2">
-      <c r="A28" s="14">
-        <v>0.11</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
-      <c r="A30" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
-      <c r="A31" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
-      <c r="A33" s="7">
-        <f>A11*A19*A28</f>
-        <v>9241727</v>
-      </c>
-      <c r="B33" s="15" t="s">
-        <v>35</v>
+        <v>83</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="7">
+        <f>A11*A19</f>
+        <v>296020090.813775</v>
+      </c>
+      <c r="B25" s="15" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D6" r:id="rId1" xr:uid="{5DAD584C-3173-4330-B5A8-D2E840F9F4E1}"/>
-    <hyperlink ref="D8" r:id="rId2" xr:uid="{CABA3628-3441-4A0C-A4DC-456AAAFA65F0}"/>
+    <hyperlink ref="D8" r:id="rId1" xr:uid="{7C5D2AB9-0515-4F46-8FF5-5E730E70E010}"/>
+    <hyperlink ref="D6" r:id="rId2" xr:uid="{E4230710-8E00-4223-BC25-519AE49A449D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId3"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -1702,149 +1971,159 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:B23"/>
+  <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView zoomScale="125" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="C8" sqref="C8:C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="27.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B1" s="18" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
+        <v>42</v>
+      </c>
+      <c r="B1" s="17" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>46</v>
-      </c>
-      <c r="B5" s="18" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
+        <v>42</v>
+      </c>
+      <c r="B5" s="17" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>102</v>
-      </c>
-      <c r="B7" s="19">
-        <v>0.65</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
+        <v>86</v>
+      </c>
+      <c r="B7" s="18">
+        <v>0.61</v>
+      </c>
+      <c r="C7" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>103</v>
-      </c>
-      <c r="B8" s="19">
+        <v>87</v>
+      </c>
+      <c r="B8" s="14">
         <v>0.17</v>
       </c>
-    </row>
-    <row r="9" spans="1:2">
+      <c r="C8" s="30" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>104</v>
-      </c>
-      <c r="B9" s="19">
+        <v>88</v>
+      </c>
+      <c r="B9" s="14">
         <v>0.15</v>
       </c>
-    </row>
-    <row r="10" spans="1:2">
+      <c r="C9" s="30"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>105</v>
-      </c>
-      <c r="B10" s="19">
+        <v>89</v>
+      </c>
+      <c r="B10" s="14">
         <v>0.03</v>
       </c>
-    </row>
-    <row r="12" spans="1:2">
+      <c r="C10" s="30"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13">
-        <f>30900*B9</f>
-        <v>4635</v>
+        <f>34000*B9</f>
+        <v>5100</v>
       </c>
       <c r="B13" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="8">
         <f>A13*About!C27</f>
-        <v>11453.31675</v>
+        <v>12602.355</v>
       </c>
       <c r="B14" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="8"/>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="12">
         <f>A14/34</f>
-        <v>336.86225735294119</v>
+        <v>370.65749999999997</v>
       </c>
       <c r="B17" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C8:C10"/>
+  </mergeCells>
   <hyperlinks>
     <hyperlink ref="B5" r:id="rId1" xr:uid="{EB676AF8-468B-BD43-8E23-2814151C268E}"/>
-    <hyperlink ref="B1" r:id="rId2" xr:uid="{D845E2A5-7C49-9F48-9178-49F49B966635}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -1861,52 +2140,52 @@
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView zoomScale="150" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2">
         <f>About!C37+About!C39</f>
-        <v>17.899999999999999</v>
+        <v>22.076138</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3">
         <f>A2*10^6*About!C27</f>
-        <v>44231795</v>
+        <v>54551240.804899998</v>
       </c>
       <c r="B3" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>119</v>
+        <v>103</v>
       </c>
     </row>
   </sheetData>
@@ -1924,21 +2203,22 @@
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
-  <dimension ref="A1:AH7"/>
+  <dimension ref="A1:AH16"/>
   <sheetViews>
-    <sheetView topLeftCell="C14" zoomScale="159" zoomScaleNormal="166" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="29.42578125" customWidth="1"/>
-    <col min="2" max="34" width="13.42578125" customWidth="1"/>
+    <col min="2" max="2" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="34" width="13.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34">
+    <row r="1" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A1" s="16" t="s">
-        <v>120</v>
+        <v>104</v>
       </c>
       <c r="B1" s="2">
         <v>2018</v>
@@ -2040,694 +2320,694 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:34">
+    <row r="2" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>121</v>
+        <v>105</v>
       </c>
       <c r="B2" s="8">
         <f>'Set Asides'!$A$21</f>
-        <v>37356.543164000002</v>
+        <v>1088266.382983</v>
       </c>
       <c r="C2" s="8">
         <f t="shared" ref="C2:AH2" si="0">$B2</f>
-        <v>37356.543164000002</v>
+        <v>1088266.382983</v>
       </c>
       <c r="D2" s="8">
         <f t="shared" si="0"/>
-        <v>37356.543164000002</v>
+        <v>1088266.382983</v>
       </c>
       <c r="E2" s="8">
         <f t="shared" si="0"/>
-        <v>37356.543164000002</v>
+        <v>1088266.382983</v>
       </c>
       <c r="F2" s="8">
         <f t="shared" si="0"/>
-        <v>37356.543164000002</v>
+        <v>1088266.382983</v>
       </c>
       <c r="G2" s="8">
         <f t="shared" si="0"/>
-        <v>37356.543164000002</v>
+        <v>1088266.382983</v>
       </c>
       <c r="H2" s="8">
         <f t="shared" si="0"/>
-        <v>37356.543164000002</v>
+        <v>1088266.382983</v>
       </c>
       <c r="I2" s="8">
         <f t="shared" si="0"/>
-        <v>37356.543164000002</v>
+        <v>1088266.382983</v>
       </c>
       <c r="J2" s="8">
         <f t="shared" si="0"/>
-        <v>37356.543164000002</v>
+        <v>1088266.382983</v>
       </c>
       <c r="K2" s="8">
         <f t="shared" si="0"/>
-        <v>37356.543164000002</v>
+        <v>1088266.382983</v>
       </c>
       <c r="L2" s="8">
         <f t="shared" si="0"/>
-        <v>37356.543164000002</v>
+        <v>1088266.382983</v>
       </c>
       <c r="M2" s="8">
         <f t="shared" si="0"/>
-        <v>37356.543164000002</v>
+        <v>1088266.382983</v>
       </c>
       <c r="N2" s="8">
         <f t="shared" si="0"/>
-        <v>37356.543164000002</v>
+        <v>1088266.382983</v>
       </c>
       <c r="O2" s="8">
         <f t="shared" si="0"/>
-        <v>37356.543164000002</v>
+        <v>1088266.382983</v>
       </c>
       <c r="P2" s="8">
         <f t="shared" si="0"/>
-        <v>37356.543164000002</v>
+        <v>1088266.382983</v>
       </c>
       <c r="Q2" s="8">
         <f t="shared" si="0"/>
-        <v>37356.543164000002</v>
+        <v>1088266.382983</v>
       </c>
       <c r="R2" s="8">
         <f t="shared" si="0"/>
-        <v>37356.543164000002</v>
+        <v>1088266.382983</v>
       </c>
       <c r="S2" s="8">
         <f t="shared" si="0"/>
-        <v>37356.543164000002</v>
+        <v>1088266.382983</v>
       </c>
       <c r="T2" s="8">
         <f t="shared" si="0"/>
-        <v>37356.543164000002</v>
+        <v>1088266.382983</v>
       </c>
       <c r="U2" s="8">
         <f t="shared" si="0"/>
-        <v>37356.543164000002</v>
+        <v>1088266.382983</v>
       </c>
       <c r="V2" s="8">
         <f t="shared" si="0"/>
-        <v>37356.543164000002</v>
+        <v>1088266.382983</v>
       </c>
       <c r="W2" s="8">
         <f t="shared" si="0"/>
-        <v>37356.543164000002</v>
+        <v>1088266.382983</v>
       </c>
       <c r="X2" s="8">
         <f t="shared" si="0"/>
-        <v>37356.543164000002</v>
+        <v>1088266.382983</v>
       </c>
       <c r="Y2" s="8">
         <f t="shared" si="0"/>
-        <v>37356.543164000002</v>
+        <v>1088266.382983</v>
       </c>
       <c r="Z2" s="8">
         <f t="shared" si="0"/>
-        <v>37356.543164000002</v>
+        <v>1088266.382983</v>
       </c>
       <c r="AA2" s="8">
         <f t="shared" si="0"/>
-        <v>37356.543164000002</v>
+        <v>1088266.382983</v>
       </c>
       <c r="AB2" s="8">
         <f t="shared" si="0"/>
-        <v>37356.543164000002</v>
+        <v>1088266.382983</v>
       </c>
       <c r="AC2" s="8">
         <f t="shared" si="0"/>
-        <v>37356.543164000002</v>
+        <v>1088266.382983</v>
       </c>
       <c r="AD2" s="8">
         <f t="shared" si="0"/>
-        <v>37356.543164000002</v>
+        <v>1088266.382983</v>
       </c>
       <c r="AE2" s="8">
         <f t="shared" si="0"/>
-        <v>37356.543164000002</v>
+        <v>1088266.382983</v>
       </c>
       <c r="AF2" s="8">
         <f t="shared" si="0"/>
-        <v>37356.543164000002</v>
+        <v>1088266.382983</v>
       </c>
       <c r="AG2" s="8">
         <f t="shared" si="0"/>
-        <v>37356.543164000002</v>
+        <v>1088266.382983</v>
       </c>
       <c r="AH2" s="8">
         <f t="shared" si="0"/>
-        <v>37356.543164000002</v>
-      </c>
-    </row>
-    <row r="3" spans="1:34">
+        <v>1088266.382983</v>
+      </c>
+    </row>
+    <row r="3" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>122</v>
+        <v>106</v>
       </c>
       <c r="B3" s="8">
         <f>'Aff Ref'!A2</f>
-        <v>1467803.7</v>
+        <v>1673789.1924749999</v>
       </c>
       <c r="C3" s="8">
         <f t="shared" ref="C3:C7" si="1">$B3</f>
-        <v>1467803.7</v>
+        <v>1673789.1924749999</v>
       </c>
       <c r="D3" s="8">
         <f t="shared" ref="D3:M7" si="2">$B3</f>
-        <v>1467803.7</v>
+        <v>1673789.1924749999</v>
       </c>
       <c r="E3" s="8">
         <f t="shared" si="2"/>
-        <v>1467803.7</v>
+        <v>1673789.1924749999</v>
       </c>
       <c r="F3" s="8">
         <f t="shared" si="2"/>
-        <v>1467803.7</v>
+        <v>1673789.1924749999</v>
       </c>
       <c r="G3" s="8">
         <f t="shared" si="2"/>
-        <v>1467803.7</v>
+        <v>1673789.1924749999</v>
       </c>
       <c r="H3" s="8">
         <f t="shared" si="2"/>
-        <v>1467803.7</v>
+        <v>1673789.1924749999</v>
       </c>
       <c r="I3" s="8">
         <f t="shared" si="2"/>
-        <v>1467803.7</v>
+        <v>1673789.1924749999</v>
       </c>
       <c r="J3" s="8">
         <f t="shared" si="2"/>
-        <v>1467803.7</v>
+        <v>1673789.1924749999</v>
       </c>
       <c r="K3" s="8">
         <f t="shared" si="2"/>
-        <v>1467803.7</v>
+        <v>1673789.1924749999</v>
       </c>
       <c r="L3" s="8">
         <f t="shared" si="2"/>
-        <v>1467803.7</v>
+        <v>1673789.1924749999</v>
       </c>
       <c r="M3" s="8">
         <f t="shared" si="2"/>
-        <v>1467803.7</v>
+        <v>1673789.1924749999</v>
       </c>
       <c r="N3" s="8">
         <f t="shared" ref="N3:W7" si="3">$B3</f>
-        <v>1467803.7</v>
+        <v>1673789.1924749999</v>
       </c>
       <c r="O3" s="8">
         <f t="shared" si="3"/>
-        <v>1467803.7</v>
+        <v>1673789.1924749999</v>
       </c>
       <c r="P3" s="8">
         <f t="shared" si="3"/>
-        <v>1467803.7</v>
+        <v>1673789.1924749999</v>
       </c>
       <c r="Q3" s="8">
         <f t="shared" si="3"/>
-        <v>1467803.7</v>
+        <v>1673789.1924749999</v>
       </c>
       <c r="R3" s="8">
         <f t="shared" si="3"/>
-        <v>1467803.7</v>
+        <v>1673789.1924749999</v>
       </c>
       <c r="S3" s="8">
         <f t="shared" si="3"/>
-        <v>1467803.7</v>
+        <v>1673789.1924749999</v>
       </c>
       <c r="T3" s="8">
         <f t="shared" si="3"/>
-        <v>1467803.7</v>
+        <v>1673789.1924749999</v>
       </c>
       <c r="U3" s="8">
         <f t="shared" si="3"/>
-        <v>1467803.7</v>
+        <v>1673789.1924749999</v>
       </c>
       <c r="V3" s="8">
         <f t="shared" si="3"/>
-        <v>1467803.7</v>
+        <v>1673789.1924749999</v>
       </c>
       <c r="W3" s="8">
         <f t="shared" si="3"/>
-        <v>1467803.7</v>
+        <v>1673789.1924749999</v>
       </c>
       <c r="X3" s="8">
         <f t="shared" ref="X3:AH7" si="4">$B3</f>
-        <v>1467803.7</v>
+        <v>1673789.1924749999</v>
       </c>
       <c r="Y3" s="8">
         <f t="shared" si="4"/>
-        <v>1467803.7</v>
+        <v>1673789.1924749999</v>
       </c>
       <c r="Z3" s="8">
         <f t="shared" si="4"/>
-        <v>1467803.7</v>
+        <v>1673789.1924749999</v>
       </c>
       <c r="AA3" s="8">
         <f t="shared" si="4"/>
-        <v>1467803.7</v>
+        <v>1673789.1924749999</v>
       </c>
       <c r="AB3" s="8">
         <f t="shared" si="4"/>
-        <v>1467803.7</v>
+        <v>1673789.1924749999</v>
       </c>
       <c r="AC3" s="8">
         <f t="shared" si="4"/>
-        <v>1467803.7</v>
+        <v>1673789.1924749999</v>
       </c>
       <c r="AD3" s="8">
         <f t="shared" si="4"/>
-        <v>1467803.7</v>
+        <v>1673789.1924749999</v>
       </c>
       <c r="AE3" s="8">
         <f t="shared" si="4"/>
-        <v>1467803.7</v>
+        <v>1673789.1924749999</v>
       </c>
       <c r="AF3" s="8">
         <f t="shared" si="4"/>
-        <v>1467803.7</v>
+        <v>1673789.1924749999</v>
       </c>
       <c r="AG3" s="8">
         <f t="shared" si="4"/>
-        <v>1467803.7</v>
+        <v>1673789.1924749999</v>
       </c>
       <c r="AH3" s="8">
         <f t="shared" si="4"/>
-        <v>1467803.7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:34">
+        <v>1673789.1924749999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>123</v>
+        <v>107</v>
       </c>
       <c r="B4" s="8">
-        <f>'Impr Forest Mgmt'!A33</f>
-        <v>9241727</v>
+        <f>'Impr Forest Mgmt'!A25</f>
+        <v>296020090.813775</v>
       </c>
       <c r="C4" s="8">
         <f t="shared" si="1"/>
-        <v>9241727</v>
+        <v>296020090.813775</v>
       </c>
       <c r="D4" s="8">
         <f t="shared" si="2"/>
-        <v>9241727</v>
+        <v>296020090.813775</v>
       </c>
       <c r="E4" s="8">
         <f t="shared" si="2"/>
-        <v>9241727</v>
+        <v>296020090.813775</v>
       </c>
       <c r="F4" s="8">
         <f t="shared" si="2"/>
-        <v>9241727</v>
+        <v>296020090.813775</v>
       </c>
       <c r="G4" s="8">
         <f t="shared" si="2"/>
-        <v>9241727</v>
+        <v>296020090.813775</v>
       </c>
       <c r="H4" s="8">
         <f t="shared" si="2"/>
-        <v>9241727</v>
+        <v>296020090.813775</v>
       </c>
       <c r="I4" s="8">
         <f t="shared" si="2"/>
-        <v>9241727</v>
+        <v>296020090.813775</v>
       </c>
       <c r="J4" s="8">
         <f t="shared" si="2"/>
-        <v>9241727</v>
+        <v>296020090.813775</v>
       </c>
       <c r="K4" s="8">
         <f t="shared" si="2"/>
-        <v>9241727</v>
+        <v>296020090.813775</v>
       </c>
       <c r="L4" s="8">
         <f t="shared" si="2"/>
-        <v>9241727</v>
+        <v>296020090.813775</v>
       </c>
       <c r="M4" s="8">
         <f t="shared" si="2"/>
-        <v>9241727</v>
+        <v>296020090.813775</v>
       </c>
       <c r="N4" s="8">
         <f t="shared" si="3"/>
-        <v>9241727</v>
+        <v>296020090.813775</v>
       </c>
       <c r="O4" s="8">
         <f t="shared" si="3"/>
-        <v>9241727</v>
+        <v>296020090.813775</v>
       </c>
       <c r="P4" s="8">
         <f t="shared" si="3"/>
-        <v>9241727</v>
+        <v>296020090.813775</v>
       </c>
       <c r="Q4" s="8">
         <f t="shared" si="3"/>
-        <v>9241727</v>
+        <v>296020090.813775</v>
       </c>
       <c r="R4" s="8">
         <f t="shared" si="3"/>
-        <v>9241727</v>
+        <v>296020090.813775</v>
       </c>
       <c r="S4" s="8">
         <f t="shared" si="3"/>
-        <v>9241727</v>
+        <v>296020090.813775</v>
       </c>
       <c r="T4" s="8">
         <f t="shared" si="3"/>
-        <v>9241727</v>
+        <v>296020090.813775</v>
       </c>
       <c r="U4" s="8">
         <f t="shared" si="3"/>
-        <v>9241727</v>
+        <v>296020090.813775</v>
       </c>
       <c r="V4" s="8">
         <f t="shared" si="3"/>
-        <v>9241727</v>
+        <v>296020090.813775</v>
       </c>
       <c r="W4" s="8">
         <f t="shared" si="3"/>
-        <v>9241727</v>
+        <v>296020090.813775</v>
       </c>
       <c r="X4" s="8">
         <f t="shared" si="4"/>
-        <v>9241727</v>
+        <v>296020090.813775</v>
       </c>
       <c r="Y4" s="8">
         <f t="shared" si="4"/>
-        <v>9241727</v>
+        <v>296020090.813775</v>
       </c>
       <c r="Z4" s="8">
         <f t="shared" si="4"/>
-        <v>9241727</v>
+        <v>296020090.813775</v>
       </c>
       <c r="AA4" s="8">
         <f t="shared" si="4"/>
-        <v>9241727</v>
+        <v>296020090.813775</v>
       </c>
       <c r="AB4" s="8">
         <f t="shared" si="4"/>
-        <v>9241727</v>
+        <v>296020090.813775</v>
       </c>
       <c r="AC4" s="8">
         <f t="shared" si="4"/>
-        <v>9241727</v>
+        <v>296020090.813775</v>
       </c>
       <c r="AD4" s="8">
         <f t="shared" si="4"/>
-        <v>9241727</v>
+        <v>296020090.813775</v>
       </c>
       <c r="AE4" s="8">
         <f t="shared" si="4"/>
-        <v>9241727</v>
+        <v>296020090.813775</v>
       </c>
       <c r="AF4" s="8">
         <f t="shared" si="4"/>
-        <v>9241727</v>
+        <v>296020090.813775</v>
       </c>
       <c r="AG4" s="8">
         <f t="shared" si="4"/>
-        <v>9241727</v>
+        <v>296020090.813775</v>
       </c>
       <c r="AH4" s="8">
         <f t="shared" si="4"/>
-        <v>9241727</v>
-      </c>
-    </row>
-    <row r="5" spans="1:34">
+        <v>296020090.813775</v>
+      </c>
+    </row>
+    <row r="5" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>124</v>
+        <v>108</v>
       </c>
       <c r="B5" s="8">
         <f>'Avoided Def'!$A$8</f>
-        <v>87438.104250000004</v>
+        <v>121951.2596</v>
       </c>
       <c r="C5" s="8">
         <f t="shared" si="1"/>
-        <v>87438.104250000004</v>
+        <v>121951.2596</v>
       </c>
       <c r="D5" s="8">
         <f t="shared" si="2"/>
-        <v>87438.104250000004</v>
+        <v>121951.2596</v>
       </c>
       <c r="E5" s="8">
         <f t="shared" si="2"/>
-        <v>87438.104250000004</v>
+        <v>121951.2596</v>
       </c>
       <c r="F5" s="8">
         <f t="shared" si="2"/>
-        <v>87438.104250000004</v>
+        <v>121951.2596</v>
       </c>
       <c r="G5" s="8">
         <f t="shared" si="2"/>
-        <v>87438.104250000004</v>
+        <v>121951.2596</v>
       </c>
       <c r="H5" s="8">
         <f t="shared" si="2"/>
-        <v>87438.104250000004</v>
+        <v>121951.2596</v>
       </c>
       <c r="I5" s="8">
         <f t="shared" si="2"/>
-        <v>87438.104250000004</v>
+        <v>121951.2596</v>
       </c>
       <c r="J5" s="8">
         <f t="shared" si="2"/>
-        <v>87438.104250000004</v>
+        <v>121951.2596</v>
       </c>
       <c r="K5" s="8">
         <f t="shared" si="2"/>
-        <v>87438.104250000004</v>
+        <v>121951.2596</v>
       </c>
       <c r="L5" s="8">
         <f t="shared" si="2"/>
-        <v>87438.104250000004</v>
+        <v>121951.2596</v>
       </c>
       <c r="M5" s="8">
         <f t="shared" si="2"/>
-        <v>87438.104250000004</v>
+        <v>121951.2596</v>
       </c>
       <c r="N5" s="8">
         <f t="shared" si="3"/>
-        <v>87438.104250000004</v>
+        <v>121951.2596</v>
       </c>
       <c r="O5" s="8">
         <f t="shared" si="3"/>
-        <v>87438.104250000004</v>
+        <v>121951.2596</v>
       </c>
       <c r="P5" s="8">
         <f t="shared" si="3"/>
-        <v>87438.104250000004</v>
+        <v>121951.2596</v>
       </c>
       <c r="Q5" s="8">
         <f t="shared" si="3"/>
-        <v>87438.104250000004</v>
+        <v>121951.2596</v>
       </c>
       <c r="R5" s="8">
         <f t="shared" si="3"/>
-        <v>87438.104250000004</v>
+        <v>121951.2596</v>
       </c>
       <c r="S5" s="8">
         <f t="shared" si="3"/>
-        <v>87438.104250000004</v>
+        <v>121951.2596</v>
       </c>
       <c r="T5" s="8">
         <f t="shared" si="3"/>
-        <v>87438.104250000004</v>
+        <v>121951.2596</v>
       </c>
       <c r="U5" s="8">
         <f t="shared" si="3"/>
-        <v>87438.104250000004</v>
+        <v>121951.2596</v>
       </c>
       <c r="V5" s="8">
         <f t="shared" si="3"/>
-        <v>87438.104250000004</v>
+        <v>121951.2596</v>
       </c>
       <c r="W5" s="8">
         <f t="shared" si="3"/>
-        <v>87438.104250000004</v>
+        <v>121951.2596</v>
       </c>
       <c r="X5" s="8">
         <f t="shared" si="4"/>
-        <v>87438.104250000004</v>
+        <v>121951.2596</v>
       </c>
       <c r="Y5" s="8">
         <f t="shared" si="4"/>
-        <v>87438.104250000004</v>
+        <v>121951.2596</v>
       </c>
       <c r="Z5" s="8">
         <f t="shared" si="4"/>
-        <v>87438.104250000004</v>
+        <v>121951.2596</v>
       </c>
       <c r="AA5" s="8">
         <f t="shared" si="4"/>
-        <v>87438.104250000004</v>
+        <v>121951.2596</v>
       </c>
       <c r="AB5" s="8">
         <f t="shared" si="4"/>
-        <v>87438.104250000004</v>
+        <v>121951.2596</v>
       </c>
       <c r="AC5" s="8">
         <f t="shared" si="4"/>
-        <v>87438.104250000004</v>
+        <v>121951.2596</v>
       </c>
       <c r="AD5" s="8">
         <f t="shared" si="4"/>
-        <v>87438.104250000004</v>
+        <v>121951.2596</v>
       </c>
       <c r="AE5" s="8">
         <f t="shared" si="4"/>
-        <v>87438.104250000004</v>
+        <v>121951.2596</v>
       </c>
       <c r="AF5" s="8">
         <f t="shared" si="4"/>
-        <v>87438.104250000004</v>
+        <v>121951.2596</v>
       </c>
       <c r="AG5" s="8">
         <f t="shared" si="4"/>
-        <v>87438.104250000004</v>
+        <v>121951.2596</v>
       </c>
       <c r="AH5" s="8">
         <f t="shared" si="4"/>
-        <v>87438.104250000004</v>
-      </c>
-    </row>
-    <row r="6" spans="1:34">
+        <v>121951.2596</v>
+      </c>
+    </row>
+    <row r="6" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>125</v>
+        <v>109</v>
       </c>
       <c r="B6" s="8">
         <f>'Peatland restoration'!A17</f>
-        <v>336.86225735294119</v>
+        <v>370.65749999999997</v>
       </c>
       <c r="C6" s="8">
         <f t="shared" si="1"/>
-        <v>336.86225735294119</v>
+        <v>370.65749999999997</v>
       </c>
       <c r="D6" s="8">
         <f t="shared" si="2"/>
-        <v>336.86225735294119</v>
+        <v>370.65749999999997</v>
       </c>
       <c r="E6" s="8">
         <f t="shared" si="2"/>
-        <v>336.86225735294119</v>
+        <v>370.65749999999997</v>
       </c>
       <c r="F6" s="8">
         <f t="shared" si="2"/>
-        <v>336.86225735294119</v>
+        <v>370.65749999999997</v>
       </c>
       <c r="G6" s="8">
         <f t="shared" si="2"/>
-        <v>336.86225735294119</v>
+        <v>370.65749999999997</v>
       </c>
       <c r="H6" s="8">
         <f t="shared" si="2"/>
-        <v>336.86225735294119</v>
+        <v>370.65749999999997</v>
       </c>
       <c r="I6" s="8">
         <f t="shared" si="2"/>
-        <v>336.86225735294119</v>
+        <v>370.65749999999997</v>
       </c>
       <c r="J6" s="8">
         <f t="shared" si="2"/>
-        <v>336.86225735294119</v>
+        <v>370.65749999999997</v>
       </c>
       <c r="K6" s="8">
         <f t="shared" si="2"/>
-        <v>336.86225735294119</v>
+        <v>370.65749999999997</v>
       </c>
       <c r="L6" s="8">
         <f t="shared" si="2"/>
-        <v>336.86225735294119</v>
+        <v>370.65749999999997</v>
       </c>
       <c r="M6" s="8">
         <f t="shared" si="2"/>
-        <v>336.86225735294119</v>
+        <v>370.65749999999997</v>
       </c>
       <c r="N6" s="8">
         <f t="shared" si="3"/>
-        <v>336.86225735294119</v>
+        <v>370.65749999999997</v>
       </c>
       <c r="O6" s="8">
         <f t="shared" si="3"/>
-        <v>336.86225735294119</v>
+        <v>370.65749999999997</v>
       </c>
       <c r="P6" s="8">
         <f t="shared" si="3"/>
-        <v>336.86225735294119</v>
+        <v>370.65749999999997</v>
       </c>
       <c r="Q6" s="8">
         <f t="shared" si="3"/>
-        <v>336.86225735294119</v>
+        <v>370.65749999999997</v>
       </c>
       <c r="R6" s="8">
         <f t="shared" si="3"/>
-        <v>336.86225735294119</v>
+        <v>370.65749999999997</v>
       </c>
       <c r="S6" s="8">
         <f t="shared" si="3"/>
-        <v>336.86225735294119</v>
+        <v>370.65749999999997</v>
       </c>
       <c r="T6" s="8">
         <f t="shared" si="3"/>
-        <v>336.86225735294119</v>
+        <v>370.65749999999997</v>
       </c>
       <c r="U6" s="8">
         <f t="shared" si="3"/>
-        <v>336.86225735294119</v>
+        <v>370.65749999999997</v>
       </c>
       <c r="V6" s="8">
         <f t="shared" si="3"/>
-        <v>336.86225735294119</v>
+        <v>370.65749999999997</v>
       </c>
       <c r="W6" s="8">
         <f t="shared" si="3"/>
-        <v>336.86225735294119</v>
+        <v>370.65749999999997</v>
       </c>
       <c r="X6" s="8">
         <f t="shared" si="4"/>
-        <v>336.86225735294119</v>
+        <v>370.65749999999997</v>
       </c>
       <c r="Y6" s="8">
         <f t="shared" si="4"/>
-        <v>336.86225735294119</v>
+        <v>370.65749999999997</v>
       </c>
       <c r="Z6" s="8">
         <f t="shared" si="4"/>
-        <v>336.86225735294119</v>
+        <v>370.65749999999997</v>
       </c>
       <c r="AA6" s="8">
         <f t="shared" si="4"/>
-        <v>336.86225735294119</v>
+        <v>370.65749999999997</v>
       </c>
       <c r="AB6" s="8">
         <f t="shared" si="4"/>
-        <v>336.86225735294119</v>
+        <v>370.65749999999997</v>
       </c>
       <c r="AC6" s="8">
         <f t="shared" si="4"/>
-        <v>336.86225735294119</v>
+        <v>370.65749999999997</v>
       </c>
       <c r="AD6" s="8">
         <f t="shared" si="4"/>
-        <v>336.86225735294119</v>
+        <v>370.65749999999997</v>
       </c>
       <c r="AE6" s="8">
         <f t="shared" si="4"/>
-        <v>336.86225735294119</v>
+        <v>370.65749999999997</v>
       </c>
       <c r="AF6" s="8">
         <f t="shared" si="4"/>
-        <v>336.86225735294119</v>
+        <v>370.65749999999997</v>
       </c>
       <c r="AG6" s="8">
         <f t="shared" si="4"/>
-        <v>336.86225735294119</v>
+        <v>370.65749999999997</v>
       </c>
       <c r="AH6" s="8">
         <f t="shared" si="4"/>
-        <v>336.86225735294119</v>
-      </c>
-    </row>
-    <row r="7" spans="1:34">
+        <v>370.65749999999997</v>
+      </c>
+    </row>
+    <row r="7" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>126</v>
+        <v>110</v>
       </c>
       <c r="B7" s="8">
         <v>0</v>
@@ -2860,6 +3140,33 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
+    </row>
+    <row r="8" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="B8" s="19"/>
+    </row>
+    <row r="9" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="B9" s="22"/>
+    </row>
+    <row r="10" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="B10" s="28"/>
+    </row>
+    <row r="11" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="B11" s="28"/>
+    </row>
+    <row r="12" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="B12" s="28"/>
+    </row>
+    <row r="13" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="B13" s="28"/>
+    </row>
+    <row r="14" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="B14" s="28"/>
+    </row>
+    <row r="15" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="B15" s="28"/>
+    </row>
+    <row r="16" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="B16" s="22"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2872,8 +3179,17 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010010EB76B7FE121F489C7B2A4727FCE3E9" ma:contentTypeVersion="17" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="6681120aa8fa62dd7a0beb503524cb55">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="52604411-7aeb-406e-8b34-4ce79a7293cc" xmlns:ns3="de340059-046a-4f1a-8b62-ade039df3700" xmlns:ns4="d580559a-617d-4d7d-8fb9-71ff64b58360" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b98e8ac0331400a99b3dbea3ee620024" ns2:_="" ns3:_="" ns4:_="">
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010010EB76B7FE121F489C7B2A4727FCE3E9" ma:contentTypeVersion="21" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="b14dc5c440242a7f7d08dacad5c84df8">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="52604411-7aeb-406e-8b34-4ce79a7293cc" xmlns:ns3="de340059-046a-4f1a-8b62-ade039df3700" xmlns:ns4="d580559a-617d-4d7d-8fb9-71ff64b58360" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="71a713f9ca42e4f2f02aa83a9b465f65" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="52604411-7aeb-406e-8b34-4ce79a7293cc"/>
     <xsd:import namespace="de340059-046a-4f1a-8b62-ade039df3700"/>
     <xsd:import namespace="d580559a-617d-4d7d-8fb9-71ff64b58360"/>
@@ -2897,6 +3213,9 @@
                 <xsd:element ref="ns3:MediaServiceOCR" minOccurs="0"/>
                 <xsd:element ref="ns3:MediaServiceGenerationTime" minOccurs="0"/>
                 <xsd:element ref="ns3:MediaServiceEventHashCode" minOccurs="0"/>
+                <xsd:element ref="ns3:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceDateTaken" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaLengthInSeconds" minOccurs="0"/>
               </xsd:all>
             </xsd:complexType>
           </xsd:element>
@@ -2985,6 +3304,23 @@
     <xsd:element name="MediaServiceEventHashCode" ma:index="24" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="26" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Image Tags" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="a296b89e-8abc-49db-b68e-edd9bb7809e5" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="MediaServiceDateTaken" ma:index="27" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaLengthInSeconds" ma:index="28" nillable="true" ma:displayName="MediaLengthInSeconds" ma:hidden="true" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Unknown"/>
       </xsd:simpleType>
     </xsd:element>
   </xsd:schema>
@@ -3117,15 +3453,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -3139,18 +3466,55 @@
       <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     </l787e5950a9249679d0130235a9a791b>
     <TaxCatchAll xmlns="52604411-7aeb-406e-8b34-4ce79a7293cc" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="de340059-046a-4f1a-8b62-ade039df3700">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
   </documentManagement>
 </p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FCD18F95-39B0-45E9-BFB5-BC73734966CA}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B661E4AF-14CB-4572-9ABF-94EBD456A433}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B661E4AF-14CB-4572-9ABF-94EBD456A433}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A9755298-B1DE-45C7-9954-10ADFFF271F3}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="52604411-7aeb-406e-8b34-4ce79a7293cc"/>
+    <ds:schemaRef ds:uri="de340059-046a-4f1a-8b62-ade039df3700"/>
+    <ds:schemaRef ds:uri="d580559a-617d-4d7d-8fb9-71ff64b58360"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{67DBDE92-93F9-4C35-ABA6-B9BBB4CED815}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{67DBDE92-93F9-4C35-ABA6-B9BBB4CED815}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="de340059-046a-4f1a-8b62-ade039df3700"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="52604411-7aeb-406e-8b34-4ce79a7293cc"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="d580559a-617d-4d7d-8fb9-71ff64b58360"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/InputData/land/PLANAbPiaSY/Potential Land Area Newly Affected by Pol in a Single Yr.xlsx
+++ b/InputData/land/PLANAbPiaSY/Potential Land Area Newly Affected by Pol in a Single Yr.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://pembinainstitute.sharepoint.com/sites/PRO-EnergyPolicySimulator2021/Shared Documents/Research and Analysis/CANADA-inputData/land/PLANAbPiaSY/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="265" documentId="8_{74B7E32C-CC73-AD40-9E0E-6148B3B06460}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{79BFA65A-CEA7-428D-866E-C43A2834D735}"/>
+  <xr:revisionPtr revIDLastSave="288" documentId="8_{74B7E32C-CC73-AD40-9E0E-6148B3B06460}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{89191A37-E42F-4C79-81B3-FBD584CA8544}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -44,8 +44,26 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={62F39E11-EEA3-4533-8A69-B8CED292EA6A}</author>
+  </authors>
+  <commentList>
+    <comment ref="A8" authorId="0" shapeId="0" xr:uid="{62F39E11-EEA3-4533-8A69-B8CED292EA6A}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    =About!C34</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="132">
   <si>
     <t>PLANAbPiaSY Potential Land Area Newly Affected by Policy in a Single Year</t>
   </si>
@@ -432,6 +450,16 @@
   </si>
   <si>
     <t>Total forest inventory in Canada</t>
+  </si>
+  <si>
+    <t>https://cca-reports.ca/wp-content/uploads/2021/03/Carbon-Sinks_EN_CH-3_Forests.pdf</t>
+  </si>
+  <si>
+    <t>Council of Canadian Academies</t>
+  </si>
+  <si>
+    <t>65% of total forests in Canada managed
+35% of total forests in Canada unmanaged</t>
   </si>
 </sst>
 </file>
@@ -443,7 +471,7 @@
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -518,6 +546,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -577,7 +613,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -616,6 +652,7 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="4" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="13" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -648,6 +685,61 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>325544</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>153485</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7236BD0A-0A2B-CB84-9A25-9166FDB98BF8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10267950" y="4191000"/>
+          <a:ext cx="12136544" cy="7773485"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <person displayName="Jason Lam" id="{5A16D4EA-E0E2-43B8-9261-D8227880C7EE}" userId="S::jasonl@pembina.org::5b5bd7de-0c75-48d9-9d9d-c2e907d7b43a" providerId="AD"/>
+</personList>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -935,12 +1027,20 @@
 </a:theme>
 </file>
 
+<file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="A8" dT="2023-04-13T22:22:32.47" personId="{5A16D4EA-E0E2-43B8-9261-D8227880C7EE}" id="{62F39E11-EEA3-4533-8A69-B8CED292EA6A}">
+    <text>=About!C34</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F55"/>
+  <dimension ref="A1:I55"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B39" sqref="B39"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N18" sqref="N18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -949,70 +1049,76 @@
     <col min="3" max="3" width="12.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="I3" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B6" s="17" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="I6" s="17" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B11" s="17" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B14" s="21" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B15" s="21" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B16" s="24" t="s">
         <v>8</v>
       </c>
@@ -1370,9 +1476,11 @@
     <hyperlink ref="B21" r:id="rId2" xr:uid="{C1064EB9-DA5C-40B2-A6AC-24EE76CDD873}"/>
     <hyperlink ref="B16" r:id="rId3" xr:uid="{790EC34A-9BA0-46D3-AF31-0087EAF82408}"/>
     <hyperlink ref="B6" r:id="rId4" xr:uid="{17D5156F-E7E6-414B-AB4B-3B8AF72153E3}"/>
+    <hyperlink ref="I6" r:id="rId5" xr:uid="{00EA4891-1947-48E4-927D-D603045FD53C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId5"/>
+  <pageSetup orientation="portrait" r:id="rId6"/>
+  <drawing r:id="rId7"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -1807,11 +1915,11 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:F25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1846,8 +1954,8 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="29">
-        <f>About!D45+About!D46+'Impr Forest Mgmt'!D47</f>
-        <v>397.981987</v>
+        <f>About!D45</f>
+        <v>361.732641</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>72</v>
@@ -1866,8 +1974,8 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="25">
-        <f>About!C34</f>
-        <v>158.39145600000001</v>
+        <f>A6*0.65</f>
+        <v>235.12621665</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>19</v>
@@ -1876,18 +1984,21 @@
         <v>73</v>
       </c>
       <c r="D8" s="17" t="s">
-        <v>115</v>
+        <v>129</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>75</v>
       </c>
+      <c r="D9" s="30" t="s">
+        <v>131</v>
+      </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10">
         <f>A6-A8</f>
-        <v>239.590531</v>
+        <v>126.60642435</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>19</v>
@@ -1896,7 +2007,7 @@
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="22">
         <f>A10*10^6*About!C27</f>
-        <v>592040181.62755001</v>
+        <v>312850804.89006746</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>31</v>
@@ -1948,7 +2059,7 @@
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="7">
         <f>A11*A19</f>
-        <v>296020090.813775</v>
+        <v>156425402.44503373</v>
       </c>
       <c r="B25" s="15" t="s">
         <v>31</v>
@@ -1956,11 +2067,12 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D8" r:id="rId1" xr:uid="{7C5D2AB9-0515-4F46-8FF5-5E730E70E010}"/>
-    <hyperlink ref="D6" r:id="rId2" xr:uid="{E4230710-8E00-4223-BC25-519AE49A449D}"/>
+    <hyperlink ref="D6" r:id="rId1" xr:uid="{E4230710-8E00-4223-BC25-519AE49A449D}"/>
+    <hyperlink ref="D8" r:id="rId2" xr:uid="{B472C126-245F-4E95-BF0A-60F004164560}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId3"/>
+  <legacyDrawing r:id="rId4"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -2031,7 +2143,7 @@
       <c r="B8" s="14">
         <v>0.17</v>
       </c>
-      <c r="C8" s="30" t="s">
+      <c r="C8" s="31" t="s">
         <v>127</v>
       </c>
     </row>
@@ -2042,7 +2154,7 @@
       <c r="B9" s="14">
         <v>0.15</v>
       </c>
-      <c r="C9" s="30"/>
+      <c r="C9" s="31"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
@@ -2051,7 +2163,7 @@
       <c r="B10" s="14">
         <v>0.03</v>
       </c>
-      <c r="C10" s="30"/>
+      <c r="C10" s="31"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
@@ -2206,7 +2318,7 @@
   <dimension ref="A1:AH16"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2600,135 +2712,135 @@
       </c>
       <c r="B4" s="8">
         <f>'Impr Forest Mgmt'!A25</f>
-        <v>296020090.813775</v>
+        <v>156425402.44503373</v>
       </c>
       <c r="C4" s="8">
         <f t="shared" si="1"/>
-        <v>296020090.813775</v>
+        <v>156425402.44503373</v>
       </c>
       <c r="D4" s="8">
         <f t="shared" si="2"/>
-        <v>296020090.813775</v>
+        <v>156425402.44503373</v>
       </c>
       <c r="E4" s="8">
         <f t="shared" si="2"/>
-        <v>296020090.813775</v>
+        <v>156425402.44503373</v>
       </c>
       <c r="F4" s="8">
         <f t="shared" si="2"/>
-        <v>296020090.813775</v>
+        <v>156425402.44503373</v>
       </c>
       <c r="G4" s="8">
         <f t="shared" si="2"/>
-        <v>296020090.813775</v>
+        <v>156425402.44503373</v>
       </c>
       <c r="H4" s="8">
         <f t="shared" si="2"/>
-        <v>296020090.813775</v>
+        <v>156425402.44503373</v>
       </c>
       <c r="I4" s="8">
         <f t="shared" si="2"/>
-        <v>296020090.813775</v>
+        <v>156425402.44503373</v>
       </c>
       <c r="J4" s="8">
         <f t="shared" si="2"/>
-        <v>296020090.813775</v>
+        <v>156425402.44503373</v>
       </c>
       <c r="K4" s="8">
         <f t="shared" si="2"/>
-        <v>296020090.813775</v>
+        <v>156425402.44503373</v>
       </c>
       <c r="L4" s="8">
         <f t="shared" si="2"/>
-        <v>296020090.813775</v>
+        <v>156425402.44503373</v>
       </c>
       <c r="M4" s="8">
         <f t="shared" si="2"/>
-        <v>296020090.813775</v>
+        <v>156425402.44503373</v>
       </c>
       <c r="N4" s="8">
         <f t="shared" si="3"/>
-        <v>296020090.813775</v>
+        <v>156425402.44503373</v>
       </c>
       <c r="O4" s="8">
         <f t="shared" si="3"/>
-        <v>296020090.813775</v>
+        <v>156425402.44503373</v>
       </c>
       <c r="P4" s="8">
         <f t="shared" si="3"/>
-        <v>296020090.813775</v>
+        <v>156425402.44503373</v>
       </c>
       <c r="Q4" s="8">
         <f t="shared" si="3"/>
-        <v>296020090.813775</v>
+        <v>156425402.44503373</v>
       </c>
       <c r="R4" s="8">
         <f t="shared" si="3"/>
-        <v>296020090.813775</v>
+        <v>156425402.44503373</v>
       </c>
       <c r="S4" s="8">
         <f t="shared" si="3"/>
-        <v>296020090.813775</v>
+        <v>156425402.44503373</v>
       </c>
       <c r="T4" s="8">
         <f t="shared" si="3"/>
-        <v>296020090.813775</v>
+        <v>156425402.44503373</v>
       </c>
       <c r="U4" s="8">
         <f t="shared" si="3"/>
-        <v>296020090.813775</v>
+        <v>156425402.44503373</v>
       </c>
       <c r="V4" s="8">
         <f t="shared" si="3"/>
-        <v>296020090.813775</v>
+        <v>156425402.44503373</v>
       </c>
       <c r="W4" s="8">
         <f t="shared" si="3"/>
-        <v>296020090.813775</v>
+        <v>156425402.44503373</v>
       </c>
       <c r="X4" s="8">
         <f t="shared" si="4"/>
-        <v>296020090.813775</v>
+        <v>156425402.44503373</v>
       </c>
       <c r="Y4" s="8">
         <f t="shared" si="4"/>
-        <v>296020090.813775</v>
+        <v>156425402.44503373</v>
       </c>
       <c r="Z4" s="8">
         <f t="shared" si="4"/>
-        <v>296020090.813775</v>
+        <v>156425402.44503373</v>
       </c>
       <c r="AA4" s="8">
         <f t="shared" si="4"/>
-        <v>296020090.813775</v>
+        <v>156425402.44503373</v>
       </c>
       <c r="AB4" s="8">
         <f t="shared" si="4"/>
-        <v>296020090.813775</v>
+        <v>156425402.44503373</v>
       </c>
       <c r="AC4" s="8">
         <f t="shared" si="4"/>
-        <v>296020090.813775</v>
+        <v>156425402.44503373</v>
       </c>
       <c r="AD4" s="8">
         <f t="shared" si="4"/>
-        <v>296020090.813775</v>
+        <v>156425402.44503373</v>
       </c>
       <c r="AE4" s="8">
         <f t="shared" si="4"/>
-        <v>296020090.813775</v>
+        <v>156425402.44503373</v>
       </c>
       <c r="AF4" s="8">
         <f t="shared" si="4"/>
-        <v>296020090.813775</v>
+        <v>156425402.44503373</v>
       </c>
       <c r="AG4" s="8">
         <f t="shared" si="4"/>
-        <v>296020090.813775</v>
+        <v>156425402.44503373</v>
       </c>
       <c r="AH4" s="8">
         <f t="shared" si="4"/>
-        <v>296020090.813775</v>
+        <v>156425402.44503373</v>
       </c>
     </row>
     <row r="5" spans="1:34" x14ac:dyDescent="0.25">
@@ -3179,15 +3291,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010010EB76B7FE121F489C7B2A4727FCE3E9" ma:contentTypeVersion="21" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="b14dc5c440242a7f7d08dacad5c84df8">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="52604411-7aeb-406e-8b34-4ce79a7293cc" xmlns:ns3="de340059-046a-4f1a-8b62-ade039df3700" xmlns:ns4="d580559a-617d-4d7d-8fb9-71ff64b58360" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="71a713f9ca42e4f2f02aa83a9b465f65" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="52604411-7aeb-406e-8b34-4ce79a7293cc"/>
@@ -3453,7 +3556,7 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <of2ed5e60f3c4f8984f283882cb94320 xmlns="52604411-7aeb-406e-8b34-4ce79a7293cc">
@@ -3473,15 +3576,16 @@
 </p:properties>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B661E4AF-14CB-4572-9ABF-94EBD456A433}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A9755298-B1DE-45C7-9954-10ADFFF271F3}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3501,20 +3605,28 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{67DBDE92-93F9-4C35-ABA6-B9BBB4CED815}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="de340059-046a-4f1a-8b62-ade039df3700"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="d580559a-617d-4d7d-8fb9-71ff64b58360"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="52604411-7aeb-406e-8b34-4ce79a7293cc"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="de340059-046a-4f1a-8b62-ade039df3700"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="d580559a-617d-4d7d-8fb9-71ff64b58360"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B661E4AF-14CB-4572-9ABF-94EBD456A433}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/InputData/land/PLANAbPiaSY/Potential Land Area Newly Affected by Pol in a Single Yr.xlsx
+++ b/InputData/land/PLANAbPiaSY/Potential Land Area Newly Affected by Pol in a Single Yr.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26130"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://pembinainstitute.sharepoint.com/sites/PRO-EnergyPolicySimulator2021/Shared Documents/Research and Analysis/CANADA-inputData/land/PLANAbPiaSY/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="288" documentId="8_{74B7E32C-CC73-AD40-9E0E-6148B3B06460}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{89191A37-E42F-4C79-81B3-FBD584CA8544}"/>
+  <xr:revisionPtr revIDLastSave="333" documentId="8_{74B7E32C-CC73-AD40-9E0E-6148B3B06460}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E0BB5607-AFF9-4DBE-85E5-F47D4D21EC8A}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="3540" yWindow="3540" windowWidth="21600" windowHeight="11295" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -302,12 +302,6 @@
     <t>techniques.</t>
   </si>
   <si>
-    <t>In line with assumptions that guide the, U.S. model, we assume that only a share</t>
-  </si>
-  <si>
-    <t>of the forest not already under management is suitable for accelerated carbon sequestration.</t>
-  </si>
-  <si>
     <t>share of forest that is suitable for improved management</t>
   </si>
   <si>
@@ -458,8 +452,14 @@
     <t>Council of Canadian Academies</t>
   </si>
   <si>
-    <t>65% of total forests in Canada managed
-35% of total forests in Canada unmanaged</t>
+    <t>65% of total forests in Canada managed. 35% of total forests in Canada unmanaged</t>
+  </si>
+  <si>
+    <t>Assumed value of 10% used to prevent improved forest management lever from reducing more emissions than 65,000 kT CO2e from 1990 from NIR 2023.
+keep improved forest management within the range of what is historically stated already in the ECCC values.</t>
+  </si>
+  <si>
+    <t>Elaborate further in rationale for assumption</t>
   </si>
 </sst>
 </file>
@@ -613,7 +613,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -653,8 +653,15 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="4" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="13" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="15">
@@ -725,6 +732,55 @@
         <a:xfrm>
           <a:off x="10267950" y="4191000"/>
           <a:ext cx="12136544" cy="7773485"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>36452</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>19824</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{56A3B36C-102A-A7AA-75EF-AF48664B2AF3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="5524500"/>
+          <a:ext cx="15489812" cy="5544324"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1039,8 +1095,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N18" sqref="N18"/>
+    <sheetView topLeftCell="A21" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1062,7 +1118,7 @@
         <v>2</v>
       </c>
       <c r="I3" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -1072,15 +1128,15 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B6" s="17" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="I6" s="17" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -1095,12 +1151,12 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B11" s="17" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
@@ -1180,7 +1236,7 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
@@ -1302,21 +1358,21 @@
     </row>
     <row r="43" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
+        <v>114</v>
+      </c>
+      <c r="C43" t="s">
         <v>116</v>
-      </c>
-      <c r="C43" t="s">
-        <v>118</v>
       </c>
       <c r="D43" t="s">
         <v>19</v>
       </c>
       <c r="F43" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="45" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B45" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C45" s="22">
         <v>361732641</v>
@@ -1331,7 +1387,7 @@
     </row>
     <row r="46" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C46" s="22">
         <v>36249346</v>
@@ -1346,7 +1402,7 @@
     </row>
     <row r="47" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C47" s="22">
         <v>12662714</v>
@@ -1441,7 +1497,7 @@
     </row>
     <row r="54" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B54" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C54" s="22">
         <f>C45*0.091</f>
@@ -1452,7 +1508,7 @@
         <v>32.917670331000004</v>
       </c>
       <c r="F54" s="27" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="55" spans="2:6" x14ac:dyDescent="0.25">
@@ -1493,8 +1549,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C26"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" zoomScale="118" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView zoomScale="118" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1777,7 +1833,7 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="21" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B14" s="21"/>
       <c r="C14" s="21"/>
@@ -1916,10 +1972,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:F25"/>
+  <dimension ref="A1:J25"/>
   <sheetViews>
-    <sheetView zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1949,7 +2005,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -1964,7 +2020,7 @@
         <v>73</v>
       </c>
       <c r="D6" s="17" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -1984,7 +2040,7 @@
         <v>73</v>
       </c>
       <c r="D8" s="17" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -1992,11 +2048,11 @@
         <v>75</v>
       </c>
       <c r="D9" s="30" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10">
+      <c r="A10" s="25">
         <f>A6-A8</f>
         <v>126.60642435</v>
       </c>
@@ -2028,51 +2084,64 @@
         <v>78</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+    <row r="17" spans="1:10" ht="66" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="33" t="s">
+        <v>130</v>
+      </c>
+      <c r="B17" s="33"/>
+      <c r="C17" s="33"/>
+      <c r="D17" s="33"/>
+      <c r="E17" s="33"/>
+      <c r="F17" s="34" t="s">
+        <v>131</v>
+      </c>
+      <c r="G17" s="21"/>
+      <c r="H17" s="21"/>
+      <c r="I17" s="21"/>
+      <c r="J17" s="21"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" s="14">
+        <v>0.1</v>
+      </c>
+      <c r="B19" s="3" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" s="18"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="14">
-        <v>0.5</v>
-      </c>
-      <c r="B19" s="3" t="s">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="7">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25" s="31">
         <f>A11*A19</f>
-        <v>156425402.44503373</v>
+        <v>31285080.489006747</v>
       </c>
       <c r="B25" s="15" t="s">
         <v>31</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A17:E17"/>
+  </mergeCells>
   <hyperlinks>
     <hyperlink ref="D6" r:id="rId1" xr:uid="{E4230710-8E00-4223-BC25-519AE49A449D}"/>
     <hyperlink ref="D8" r:id="rId2" xr:uid="{B472C126-245F-4E95-BF0A-60F004164560}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId3"/>
-  <legacyDrawing r:id="rId4"/>
+  <drawing r:id="rId4"/>
+  <legacyDrawing r:id="rId5"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -2099,17 +2168,17 @@
         <v>42</v>
       </c>
       <c r="B1" s="17" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -2122,52 +2191,52 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B7" s="18">
         <v>0.61</v>
       </c>
       <c r="C7" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B8" s="14">
         <v>0.17</v>
       </c>
-      <c r="C8" s="31" t="s">
-        <v>127</v>
+      <c r="C8" s="32" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B9" s="14">
         <v>0.15</v>
       </c>
-      <c r="C9" s="31"/>
+      <c r="C9" s="32"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B10" s="14">
         <v>0.03</v>
       </c>
-      <c r="C10" s="31"/>
+      <c r="C10" s="32"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -2193,7 +2262,7 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -2202,32 +2271,32 @@
         <v>370.65749999999997</v>
       </c>
       <c r="B17" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
   </sheetData>
@@ -2252,14 +2321,14 @@
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView zoomScale="150" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -2277,27 +2346,27 @@
         <v>54551240.804899998</v>
       </c>
       <c r="B3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
   </sheetData>
@@ -2318,7 +2387,7 @@
   <dimension ref="A1:AH16"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2330,7 +2399,7 @@
   <sheetData>
     <row r="1" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A1" s="16" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B1" s="2">
         <v>2018</v>
@@ -2434,7 +2503,7 @@
     </row>
     <row r="2" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B2" s="8">
         <f>'Set Asides'!$A$21</f>
@@ -2571,7 +2640,7 @@
     </row>
     <row r="3" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B3" s="8">
         <f>'Aff Ref'!A2</f>
@@ -2708,144 +2777,144 @@
     </row>
     <row r="4" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B4" s="8">
         <f>'Impr Forest Mgmt'!A25</f>
-        <v>156425402.44503373</v>
+        <v>31285080.489006747</v>
       </c>
       <c r="C4" s="8">
         <f t="shared" si="1"/>
-        <v>156425402.44503373</v>
+        <v>31285080.489006747</v>
       </c>
       <c r="D4" s="8">
         <f t="shared" si="2"/>
-        <v>156425402.44503373</v>
+        <v>31285080.489006747</v>
       </c>
       <c r="E4" s="8">
         <f t="shared" si="2"/>
-        <v>156425402.44503373</v>
+        <v>31285080.489006747</v>
       </c>
       <c r="F4" s="8">
         <f t="shared" si="2"/>
-        <v>156425402.44503373</v>
+        <v>31285080.489006747</v>
       </c>
       <c r="G4" s="8">
         <f t="shared" si="2"/>
-        <v>156425402.44503373</v>
+        <v>31285080.489006747</v>
       </c>
       <c r="H4" s="8">
         <f t="shared" si="2"/>
-        <v>156425402.44503373</v>
+        <v>31285080.489006747</v>
       </c>
       <c r="I4" s="8">
         <f t="shared" si="2"/>
-        <v>156425402.44503373</v>
+        <v>31285080.489006747</v>
       </c>
       <c r="J4" s="8">
         <f t="shared" si="2"/>
-        <v>156425402.44503373</v>
+        <v>31285080.489006747</v>
       </c>
       <c r="K4" s="8">
         <f t="shared" si="2"/>
-        <v>156425402.44503373</v>
+        <v>31285080.489006747</v>
       </c>
       <c r="L4" s="8">
         <f t="shared" si="2"/>
-        <v>156425402.44503373</v>
+        <v>31285080.489006747</v>
       </c>
       <c r="M4" s="8">
         <f t="shared" si="2"/>
-        <v>156425402.44503373</v>
+        <v>31285080.489006747</v>
       </c>
       <c r="N4" s="8">
         <f t="shared" si="3"/>
-        <v>156425402.44503373</v>
+        <v>31285080.489006747</v>
       </c>
       <c r="O4" s="8">
         <f t="shared" si="3"/>
-        <v>156425402.44503373</v>
+        <v>31285080.489006747</v>
       </c>
       <c r="P4" s="8">
         <f t="shared" si="3"/>
-        <v>156425402.44503373</v>
+        <v>31285080.489006747</v>
       </c>
       <c r="Q4" s="8">
         <f t="shared" si="3"/>
-        <v>156425402.44503373</v>
+        <v>31285080.489006747</v>
       </c>
       <c r="R4" s="8">
         <f t="shared" si="3"/>
-        <v>156425402.44503373</v>
+        <v>31285080.489006747</v>
       </c>
       <c r="S4" s="8">
         <f t="shared" si="3"/>
-        <v>156425402.44503373</v>
+        <v>31285080.489006747</v>
       </c>
       <c r="T4" s="8">
         <f t="shared" si="3"/>
-        <v>156425402.44503373</v>
+        <v>31285080.489006747</v>
       </c>
       <c r="U4" s="8">
         <f t="shared" si="3"/>
-        <v>156425402.44503373</v>
+        <v>31285080.489006747</v>
       </c>
       <c r="V4" s="8">
         <f t="shared" si="3"/>
-        <v>156425402.44503373</v>
+        <v>31285080.489006747</v>
       </c>
       <c r="W4" s="8">
         <f t="shared" si="3"/>
-        <v>156425402.44503373</v>
+        <v>31285080.489006747</v>
       </c>
       <c r="X4" s="8">
         <f t="shared" si="4"/>
-        <v>156425402.44503373</v>
+        <v>31285080.489006747</v>
       </c>
       <c r="Y4" s="8">
         <f t="shared" si="4"/>
-        <v>156425402.44503373</v>
+        <v>31285080.489006747</v>
       </c>
       <c r="Z4" s="8">
         <f t="shared" si="4"/>
-        <v>156425402.44503373</v>
+        <v>31285080.489006747</v>
       </c>
       <c r="AA4" s="8">
         <f t="shared" si="4"/>
-        <v>156425402.44503373</v>
+        <v>31285080.489006747</v>
       </c>
       <c r="AB4" s="8">
         <f t="shared" si="4"/>
-        <v>156425402.44503373</v>
+        <v>31285080.489006747</v>
       </c>
       <c r="AC4" s="8">
         <f t="shared" si="4"/>
-        <v>156425402.44503373</v>
+        <v>31285080.489006747</v>
       </c>
       <c r="AD4" s="8">
         <f t="shared" si="4"/>
-        <v>156425402.44503373</v>
+        <v>31285080.489006747</v>
       </c>
       <c r="AE4" s="8">
         <f t="shared" si="4"/>
-        <v>156425402.44503373</v>
+        <v>31285080.489006747</v>
       </c>
       <c r="AF4" s="8">
         <f t="shared" si="4"/>
-        <v>156425402.44503373</v>
+        <v>31285080.489006747</v>
       </c>
       <c r="AG4" s="8">
         <f t="shared" si="4"/>
-        <v>156425402.44503373</v>
+        <v>31285080.489006747</v>
       </c>
       <c r="AH4" s="8">
         <f t="shared" si="4"/>
-        <v>156425402.44503373</v>
+        <v>31285080.489006747</v>
       </c>
     </row>
     <row r="5" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B5" s="8">
         <f>'Avoided Def'!$A$8</f>
@@ -2982,7 +3051,7 @@
     </row>
     <row r="6" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B6" s="8">
         <f>'Peatland restoration'!A17</f>
@@ -3119,7 +3188,7 @@
     </row>
     <row r="7" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B7" s="8">
         <v>0</v>
@@ -3291,6 +3360,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010010EB76B7FE121F489C7B2A4727FCE3E9" ma:contentTypeVersion="21" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="b14dc5c440242a7f7d08dacad5c84df8">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="52604411-7aeb-406e-8b34-4ce79a7293cc" xmlns:ns3="de340059-046a-4f1a-8b62-ade039df3700" xmlns:ns4="d580559a-617d-4d7d-8fb9-71ff64b58360" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="71a713f9ca42e4f2f02aa83a9b465f65" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="52604411-7aeb-406e-8b34-4ce79a7293cc"/>
@@ -3556,7 +3634,7 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <of2ed5e60f3c4f8984f283882cb94320 xmlns="52604411-7aeb-406e-8b34-4ce79a7293cc">
@@ -3576,16 +3654,15 @@
 </p:properties>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B661E4AF-14CB-4572-9ABF-94EBD456A433}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A9755298-B1DE-45C7-9954-10ADFFF271F3}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3605,28 +3682,20 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{67DBDE92-93F9-4C35-ABA6-B9BBB4CED815}">
   <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
     <ds:schemaRef ds:uri="d580559a-617d-4d7d-8fb9-71ff64b58360"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="de340059-046a-4f1a-8b62-ade039df3700"/>
     <ds:schemaRef ds:uri="52604411-7aeb-406e-8b34-4ce79a7293cc"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="de340059-046a-4f1a-8b62-ade039df3700"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B661E4AF-14CB-4572-9ABF-94EBD456A433}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/InputData/land/PLANAbPiaSY/Potential Land Area Newly Affected by Pol in a Single Yr.xlsx
+++ b/InputData/land/PLANAbPiaSY/Potential Land Area Newly Affected by Pol in a Single Yr.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26227"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://pembinainstitute.sharepoint.com/sites/PRO-EnergyPolicySimulator2021/Shared Documents/Research and Analysis/CANADA-inputData/land/PLANAbPiaSY/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="333" documentId="8_{74B7E32C-CC73-AD40-9E0E-6148B3B06460}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E0BB5607-AFF9-4DBE-85E5-F47D4D21EC8A}"/>
+  <xr:revisionPtr revIDLastSave="366" documentId="8_{74B7E32C-CC73-AD40-9E0E-6148B3B06460}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2AE22162-7865-4C87-A6ED-2C8F89B52589}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="3540" yWindow="3540" windowWidth="21600" windowHeight="11295" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="134">
   <si>
     <t>PLANAbPiaSY Potential Land Area Newly Affected by Policy in a Single Year</t>
   </si>
@@ -455,11 +455,16 @@
     <t>65% of total forests in Canada managed. 35% of total forests in Canada unmanaged</t>
   </si>
   <si>
-    <t>Assumed value of 10% used to prevent improved forest management lever from reducing more emissions than 65,000 kT CO2e from 1990 from NIR 2023.
-keep improved forest management within the range of what is historically stated already in the ECCC values.</t>
-  </si>
-  <si>
     <t>Elaborate further in rationale for assumption</t>
+  </si>
+  <si>
+    <t>Nature-Based Climate Solutions</t>
+  </si>
+  <si>
+    <t>Chapter 3: Forests</t>
+  </si>
+  <si>
+    <t>Assumed value of 10% used to prevent improved forest management lever from reducing more emissions than 65,000 kT CO2e from 1990 as per NIR 2023 reference. Rationale is that what is historically stated is likely the upper ceiling for forest land use mitigation.</t>
   </si>
 </sst>
 </file>
@@ -613,7 +618,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -622,10 +627,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
@@ -654,14 +657,17 @@
     <xf numFmtId="4" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="13" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="15">
@@ -695,55 +701,6 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>31</xdr:col>
-      <xdr:colOff>325544</xdr:colOff>
-      <xdr:row>62</xdr:row>
-      <xdr:rowOff>153485</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7236BD0A-0A2B-CB84-9A25-9166FDB98BF8}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="10267950" y="4191000"/>
-          <a:ext cx="12136544" cy="7773485"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -1125,17 +1082,23 @@
       <c r="B4" t="s">
         <v>3</v>
       </c>
+      <c r="I4" t="s">
+        <v>131</v>
+      </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>110</v>
       </c>
+      <c r="I5" t="s">
+        <v>132</v>
+      </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B6" s="17" t="s">
+      <c r="B6" s="15" t="s">
         <v>113</v>
       </c>
-      <c r="I6" s="17" t="s">
+      <c r="I6" s="15" t="s">
         <v>127</v>
       </c>
     </row>
@@ -1155,7 +1118,7 @@
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B11" s="17" t="s">
+      <c r="B11" s="15" t="s">
         <v>111</v>
       </c>
     </row>
@@ -1165,22 +1128,22 @@
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B14" s="21" t="s">
+      <c r="B14" s="19" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B15" s="21" t="s">
+      <c r="B15" s="19" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B16" s="24" t="s">
+      <c r="B16" s="22" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B17" s="21" t="s">
+      <c r="B17" s="19" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1195,7 +1158,7 @@
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B21" s="17" t="s">
+      <c r="B21" s="15" t="s">
         <v>12</v>
       </c>
     </row>
@@ -1226,13 +1189,13 @@
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="9" t="s">
+      <c r="A29" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="B29" s="10"/>
-      <c r="C29" s="10"/>
-      <c r="D29" s="10"/>
-      <c r="E29" s="10"/>
+      <c r="B29" s="8"/>
+      <c r="C29" s="8"/>
+      <c r="D29" s="8"/>
+      <c r="E29" s="8"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
@@ -1251,7 +1214,7 @@
       <c r="B32" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C32" s="25">
+      <c r="C32" s="23">
         <f>$D$45</f>
         <v>361.732641</v>
       </c>
@@ -1260,11 +1223,11 @@
       <c r="B33" t="s">
         <v>22</v>
       </c>
-      <c r="C33" s="26">
+      <c r="C33" s="24">
         <f t="shared" ref="C33:C39" si="0">D49</f>
         <v>4.9352E-2</v>
       </c>
-      <c r="E33" s="27">
+      <c r="E33" s="25">
         <f>F49</f>
         <v>2020</v>
       </c>
@@ -1273,11 +1236,11 @@
       <c r="B34" t="s">
         <v>23</v>
       </c>
-      <c r="C34" s="26">
+      <c r="C34" s="24">
         <f t="shared" si="0"/>
         <v>158.39145600000001</v>
       </c>
-      <c r="E34" s="27">
+      <c r="E34" s="25">
         <f t="shared" ref="E34:E39" si="1">F50</f>
         <v>2021</v>
       </c>
@@ -1286,11 +1249,11 @@
       <c r="B35" t="s">
         <v>24</v>
       </c>
-      <c r="C35" s="26">
+      <c r="C35" s="24">
         <f t="shared" si="0"/>
         <v>0.451573</v>
       </c>
-      <c r="E35" s="27">
+      <c r="E35" s="25">
         <f t="shared" si="1"/>
         <v>2020</v>
       </c>
@@ -1299,11 +1262,11 @@
       <c r="B36" t="s">
         <v>25</v>
       </c>
-      <c r="C36" s="26">
+      <c r="C36" s="24">
         <f t="shared" si="0"/>
         <v>0.71033299999999999</v>
       </c>
-      <c r="E36" s="27">
+      <c r="E36" s="25">
         <f t="shared" si="1"/>
         <v>2020</v>
       </c>
@@ -1312,11 +1275,11 @@
       <c r="B37" t="s">
         <v>26</v>
       </c>
-      <c r="C37" s="26">
+      <c r="C37" s="24">
         <f t="shared" si="0"/>
         <v>4.3075200000000002</v>
       </c>
-      <c r="E37" s="27">
+      <c r="E37" s="25">
         <f t="shared" si="1"/>
         <v>2021</v>
       </c>
@@ -1325,11 +1288,11 @@
       <c r="B38" t="s">
         <v>27</v>
       </c>
-      <c r="C38" s="26">
+      <c r="C38" s="24">
         <f t="shared" si="0"/>
         <v>32.917670331000004</v>
       </c>
-      <c r="E38" s="27" t="str">
+      <c r="E38" s="25" t="str">
         <f t="shared" si="1"/>
         <v>—</v>
       </c>
@@ -1338,11 +1301,11 @@
       <c r="B39" t="s">
         <v>28</v>
       </c>
-      <c r="C39" s="26">
+      <c r="C39" s="24">
         <f t="shared" si="0"/>
         <v>17.768618</v>
       </c>
-      <c r="E39" s="27">
+      <c r="E39" s="25">
         <f t="shared" si="1"/>
         <v>2020</v>
       </c>
@@ -1351,7 +1314,7 @@
       <c r="B40" t="s">
         <v>29</v>
       </c>
-      <c r="C40" s="20">
+      <c r="C40" s="18">
         <f>SUM(C33:C39)</f>
         <v>214.59652233100002</v>
       </c>
@@ -1374,14 +1337,14 @@
       <c r="B45" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="C45" s="22">
+      <c r="C45" s="20">
         <v>361732641</v>
       </c>
-      <c r="D45" s="25">
+      <c r="D45" s="23">
         <f>C45/10^6</f>
         <v>361.732641</v>
       </c>
-      <c r="F45" s="27">
+      <c r="F45" s="25">
         <v>2022</v>
       </c>
     </row>
@@ -1389,14 +1352,14 @@
       <c r="B46" t="s">
         <v>120</v>
       </c>
-      <c r="C46" s="22">
+      <c r="C46" s="20">
         <v>36249346</v>
       </c>
-      <c r="D46" s="25">
+      <c r="D46" s="23">
         <f t="shared" ref="D46:D47" si="2">C46/10^6</f>
         <v>36.249346000000003</v>
       </c>
-      <c r="F46" s="27">
+      <c r="F46" s="25">
         <v>2022</v>
       </c>
     </row>
@@ -1404,33 +1367,33 @@
       <c r="B47" t="s">
         <v>121</v>
       </c>
-      <c r="C47" s="22">
+      <c r="C47" s="20">
         <v>12662714</v>
       </c>
-      <c r="D47" s="25">
+      <c r="D47" s="23">
         <f t="shared" si="2"/>
         <v>12.662713999999999</v>
       </c>
-      <c r="F47" s="27">
+      <c r="F47" s="25">
         <v>2022</v>
       </c>
     </row>
     <row r="48" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="D48" s="25"/>
-      <c r="F48" s="27"/>
+      <c r="D48" s="23"/>
+      <c r="F48" s="25"/>
     </row>
     <row r="49" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B49" t="s">
         <v>22</v>
       </c>
-      <c r="C49" s="22">
+      <c r="C49" s="20">
         <v>49352</v>
       </c>
-      <c r="D49" s="25">
+      <c r="D49" s="23">
         <f t="shared" ref="D49:D55" si="3">C49/10^6</f>
         <v>4.9352E-2</v>
       </c>
-      <c r="F49" s="27">
+      <c r="F49" s="25">
         <v>2020</v>
       </c>
     </row>
@@ -1438,14 +1401,14 @@
       <c r="B50" t="s">
         <v>23</v>
       </c>
-      <c r="C50" s="22">
+      <c r="C50" s="20">
         <v>158391456</v>
       </c>
-      <c r="D50" s="25">
+      <c r="D50" s="23">
         <f t="shared" si="3"/>
         <v>158.39145600000001</v>
       </c>
-      <c r="F50" s="27">
+      <c r="F50" s="25">
         <v>2021</v>
       </c>
     </row>
@@ -1453,15 +1416,15 @@
       <c r="B51" t="s">
         <v>24</v>
       </c>
-      <c r="C51" s="22">
+      <c r="C51" s="20">
         <f>442363+9210</f>
         <v>451573</v>
       </c>
-      <c r="D51" s="25">
+      <c r="D51" s="23">
         <f t="shared" si="3"/>
         <v>0.451573</v>
       </c>
-      <c r="F51" s="27">
+      <c r="F51" s="25">
         <v>2020</v>
       </c>
     </row>
@@ -1469,14 +1432,14 @@
       <c r="B52" t="s">
         <v>25</v>
       </c>
-      <c r="C52" s="22">
+      <c r="C52" s="20">
         <v>710333</v>
       </c>
-      <c r="D52" s="25">
+      <c r="D52" s="23">
         <f t="shared" si="3"/>
         <v>0.71033299999999999</v>
       </c>
-      <c r="F52" s="27">
+      <c r="F52" s="25">
         <v>2020</v>
       </c>
     </row>
@@ -1484,14 +1447,14 @@
       <c r="B53" t="s">
         <v>26</v>
       </c>
-      <c r="C53" s="22">
+      <c r="C53" s="20">
         <v>4307520</v>
       </c>
-      <c r="D53" s="25">
+      <c r="D53" s="23">
         <f t="shared" si="3"/>
         <v>4.3075200000000002</v>
       </c>
-      <c r="F53" s="27">
+      <c r="F53" s="25">
         <v>2021</v>
       </c>
     </row>
@@ -1499,15 +1462,15 @@
       <c r="B54" t="s">
         <v>117</v>
       </c>
-      <c r="C54" s="22">
+      <c r="C54" s="20">
         <f>C45*0.091</f>
         <v>32917670.331</v>
       </c>
-      <c r="D54" s="25">
+      <c r="D54" s="23">
         <f t="shared" si="3"/>
         <v>32.917670331000004</v>
       </c>
-      <c r="F54" s="27" t="s">
+      <c r="F54" s="25" t="s">
         <v>118</v>
       </c>
     </row>
@@ -1515,14 +1478,14 @@
       <c r="B55" t="s">
         <v>28</v>
       </c>
-      <c r="C55" s="22">
+      <c r="C55" s="20">
         <v>17768618</v>
       </c>
-      <c r="D55" s="25">
+      <c r="D55" s="23">
         <f t="shared" si="3"/>
         <v>17.768618</v>
       </c>
-      <c r="F55" s="27">
+      <c r="F55" s="25">
         <v>2020</v>
       </c>
     </row>
@@ -1536,7 +1499,6 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId6"/>
-  <drawing r:id="rId7"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -1566,7 +1528,7 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="11">
+      <c r="A2" s="9">
         <f>A11*1.5*About!C27</f>
         <v>1673789.1924749999</v>
       </c>
@@ -1575,10 +1537,10 @@
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="B5" s="10"/>
+      <c r="B5" s="8"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -1635,7 +1597,7 @@
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="16" t="s">
+      <c r="A15" s="14" t="s">
         <v>39</v>
       </c>
     </row>
@@ -1645,7 +1607,7 @@
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="13">
+      <c r="A17" s="11">
         <f>A13/A23*100</f>
         <v>12.883730908850863</v>
       </c>
@@ -1657,7 +1619,7 @@
       <c r="A19" t="s">
         <v>42</v>
       </c>
-      <c r="B19" s="17" t="s">
+      <c r="B19" s="15" t="s">
         <v>43</v>
       </c>
     </row>
@@ -1667,15 +1629,15 @@
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="10" t="s">
+      <c r="A21" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="B21" s="10" t="s">
+      <c r="B21" s="8" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="6">
+      <c r="A22" s="5">
         <v>1787543</v>
       </c>
       <c r="B22" t="s">
@@ -1752,146 +1714,145 @@
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="23" t="s">
+      <c r="A6" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="B6" s="21"/>
-      <c r="C6" s="21"/>
-      <c r="D6" s="21"/>
-      <c r="E6" s="21"/>
-      <c r="F6" s="21"/>
+      <c r="B6" s="19"/>
+      <c r="C6" s="19"/>
+      <c r="D6" s="19"/>
+      <c r="E6" s="19"/>
+      <c r="F6" s="19"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="21" t="s">
+      <c r="A7" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="B7" s="21"/>
-      <c r="C7" s="21"/>
-      <c r="D7" s="21"/>
-      <c r="E7" s="21"/>
-      <c r="F7" s="21"/>
+      <c r="B7" s="19"/>
+      <c r="C7" s="19"/>
+      <c r="D7" s="19"/>
+      <c r="E7" s="19"/>
+      <c r="F7" s="19"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="21" t="s">
+      <c r="A8" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="B8" s="21"/>
-      <c r="C8" s="21"/>
-      <c r="D8" s="21"/>
-      <c r="E8" s="21"/>
-      <c r="F8" s="21"/>
+      <c r="B8" s="19"/>
+      <c r="C8" s="19"/>
+      <c r="D8" s="19"/>
+      <c r="E8" s="19"/>
+      <c r="F8" s="19"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="21" t="s">
+      <c r="A9" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="B9" s="21"/>
-      <c r="C9" s="21"/>
-      <c r="D9" s="21"/>
-      <c r="E9" s="21"/>
-      <c r="F9" s="21"/>
+      <c r="B9" s="19"/>
+      <c r="C9" s="19"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="19"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="21" t="s">
+      <c r="A10" s="19" t="s">
         <v>56</v>
       </c>
-      <c r="B10" s="21"/>
-      <c r="C10" s="21"/>
-      <c r="D10" s="21"/>
-      <c r="E10" s="21"/>
-      <c r="F10" s="21"/>
+      <c r="B10" s="19"/>
+      <c r="C10" s="19"/>
+      <c r="D10" s="19"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="19"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="21" t="s">
+      <c r="A11" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="B11" s="21"/>
-      <c r="C11" s="21"/>
-      <c r="D11" s="21"/>
-      <c r="E11" s="21"/>
-      <c r="F11" s="21"/>
+      <c r="B11" s="19"/>
+      <c r="C11" s="19"/>
+      <c r="D11" s="19"/>
+      <c r="E11" s="19"/>
+      <c r="F11" s="19"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="21" t="s">
+      <c r="A12" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="B12" s="21"/>
-      <c r="C12" s="21"/>
-      <c r="D12" s="21"/>
-      <c r="E12" s="21"/>
-      <c r="F12" s="21"/>
+      <c r="B12" s="19"/>
+      <c r="C12" s="19"/>
+      <c r="D12" s="19"/>
+      <c r="E12" s="19"/>
+      <c r="F12" s="19"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="21" t="s">
+      <c r="A13" s="19" t="s">
         <v>59</v>
       </c>
-      <c r="B13" s="21"/>
-      <c r="C13" s="21"/>
-      <c r="D13" s="21"/>
-      <c r="E13" s="21"/>
-      <c r="F13" s="21"/>
+      <c r="B13" s="19"/>
+      <c r="C13" s="19"/>
+      <c r="D13" s="19"/>
+      <c r="E13" s="19"/>
+      <c r="F13" s="19"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="21" t="s">
+      <c r="A14" s="19" t="s">
         <v>109</v>
       </c>
-      <c r="B14" s="21"/>
-      <c r="C14" s="21"/>
-      <c r="D14" s="21"/>
-      <c r="E14" s="21"/>
-      <c r="F14" s="21"/>
+      <c r="B14" s="19"/>
+      <c r="C14" s="19"/>
+      <c r="D14" s="19"/>
+      <c r="E14" s="19"/>
+      <c r="F14" s="19"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="21" t="s">
+      <c r="A15" s="19" t="s">
         <v>60</v>
       </c>
-      <c r="B15" s="21"/>
-      <c r="C15" s="21"/>
-      <c r="D15" s="21"/>
-      <c r="E15" s="21"/>
-      <c r="F15" s="21"/>
+      <c r="B15" s="19"/>
+      <c r="C15" s="19"/>
+      <c r="D15" s="19"/>
+      <c r="E15" s="19"/>
+      <c r="F15" s="19"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="21" t="s">
+      <c r="A16" s="19" t="s">
         <v>61</v>
       </c>
-      <c r="B16" s="21"/>
-      <c r="C16" s="21"/>
-      <c r="D16" s="21"/>
-      <c r="E16" s="21"/>
-      <c r="F16" s="21"/>
+      <c r="B16" s="19"/>
+      <c r="C16" s="19"/>
+      <c r="D16" s="19"/>
+      <c r="E16" s="19"/>
+      <c r="F16" s="19"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="21" t="s">
+      <c r="A17" s="19" t="s">
         <v>62</v>
       </c>
-      <c r="B17" s="21"/>
-      <c r="C17" s="21"/>
-      <c r="D17" s="21"/>
-      <c r="E17" s="21"/>
-      <c r="F17" s="21"/>
+      <c r="B17" s="19"/>
+      <c r="C17" s="19"/>
+      <c r="D17" s="19"/>
+      <c r="E17" s="19"/>
+      <c r="F17" s="19"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="21"/>
-      <c r="B18" s="21"/>
-      <c r="C18" s="21"/>
-      <c r="D18" s="21"/>
-      <c r="E18" s="21"/>
-      <c r="F18" s="21"/>
+      <c r="A18" s="19"/>
+      <c r="B18" s="19"/>
+      <c r="C18" s="19"/>
+      <c r="D18" s="19"/>
+      <c r="E18" s="19"/>
+      <c r="F18" s="19"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="4">
-        <f>2%*(2050-2019)</f>
-        <v>0.62</v>
+      <c r="A19" s="33">
+        <v>0.02</v>
       </c>
       <c r="B19" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="7">
+      <c r="A21" s="29">
         <f>A3*A19</f>
-        <v>1088266.382983</v>
+        <v>35105.367192999998</v>
       </c>
       <c r="B21" t="s">
         <v>64</v>
@@ -1975,7 +1936,7 @@
   <dimension ref="A1:J25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2009,7 +1970,7 @@
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="29">
+      <c r="A6" s="27">
         <f>About!D45</f>
         <v>361.732641</v>
       </c>
@@ -2019,7 +1980,7 @@
       <c r="C6" t="s">
         <v>73</v>
       </c>
-      <c r="D6" s="17" t="s">
+      <c r="D6" s="15" t="s">
         <v>113</v>
       </c>
     </row>
@@ -2029,7 +1990,7 @@
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="25">
+      <c r="A8" s="23">
         <f>A6*0.65</f>
         <v>235.12621665</v>
       </c>
@@ -2039,7 +2000,7 @@
       <c r="C8" t="s">
         <v>73</v>
       </c>
-      <c r="D8" s="17" t="s">
+      <c r="D8" s="15" t="s">
         <v>127</v>
       </c>
     </row>
@@ -2047,12 +2008,12 @@
       <c r="A9" t="s">
         <v>75</v>
       </c>
-      <c r="D9" s="30" t="s">
+      <c r="D9" s="28" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="25">
+      <c r="A10" s="23">
         <f>A6-A8</f>
         <v>126.60642435</v>
       </c>
@@ -2061,7 +2022,7 @@
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="22">
+      <c r="A11" s="20">
         <f>A10*10^6*About!C27</f>
         <v>312850804.89006746</v>
       </c>
@@ -2084,24 +2045,24 @@
         <v>78</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="66" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="33" t="s">
+    <row r="17" spans="1:10" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="31" t="s">
+        <v>133</v>
+      </c>
+      <c r="B17" s="31"/>
+      <c r="C17" s="31"/>
+      <c r="D17" s="31"/>
+      <c r="E17" s="31"/>
+      <c r="F17" s="30" t="s">
         <v>130</v>
       </c>
-      <c r="B17" s="33"/>
-      <c r="C17" s="33"/>
-      <c r="D17" s="33"/>
-      <c r="E17" s="33"/>
-      <c r="F17" s="34" t="s">
-        <v>131</v>
-      </c>
-      <c r="G17" s="21"/>
-      <c r="H17" s="21"/>
-      <c r="I17" s="21"/>
-      <c r="J17" s="21"/>
+      <c r="G17" s="19"/>
+      <c r="H17" s="19"/>
+      <c r="I17" s="19"/>
+      <c r="J17" s="19"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="14">
+      <c r="A19" s="12">
         <v>0.1</v>
       </c>
       <c r="B19" s="3" t="s">
@@ -2109,7 +2070,7 @@
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="18"/>
+      <c r="A20" s="16"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
@@ -2122,11 +2083,11 @@
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25" s="31">
+      <c r="A25" s="29">
         <f>A11*A19</f>
         <v>31285080.489006747</v>
       </c>
-      <c r="B25" s="15" t="s">
+      <c r="B25" s="13" t="s">
         <v>31</v>
       </c>
     </row>
@@ -2167,17 +2128,17 @@
       <c r="A1" t="s">
         <v>42</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="15" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="4" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="4" t="s">
         <v>122</v>
       </c>
     </row>
@@ -2185,7 +2146,7 @@
       <c r="A5" t="s">
         <v>42</v>
       </c>
-      <c r="B5" s="17" t="s">
+      <c r="B5" s="15" t="s">
         <v>12</v>
       </c>
     </row>
@@ -2198,7 +2159,7 @@
       <c r="A7" t="s">
         <v>84</v>
       </c>
-      <c r="B7" s="18">
+      <c r="B7" s="16">
         <v>0.61</v>
       </c>
       <c r="C7" t="s">
@@ -2209,7 +2170,7 @@
       <c r="A8" t="s">
         <v>85</v>
       </c>
-      <c r="B8" s="14">
+      <c r="B8" s="12">
         <v>0.17</v>
       </c>
       <c r="C8" s="32" t="s">
@@ -2220,7 +2181,7 @@
       <c r="A9" t="s">
         <v>86</v>
       </c>
-      <c r="B9" s="14">
+      <c r="B9" s="12">
         <v>0.15</v>
       </c>
       <c r="C9" s="32"/>
@@ -2229,7 +2190,7 @@
       <c r="A10" t="s">
         <v>87</v>
       </c>
-      <c r="B10" s="14">
+      <c r="B10" s="12">
         <v>0.03</v>
       </c>
       <c r="C10" s="32"/>
@@ -2249,7 +2210,7 @@
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="8">
+      <c r="A14" s="6">
         <f>A13*About!C27</f>
         <v>12602.355</v>
       </c>
@@ -2258,15 +2219,15 @@
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="8"/>
+      <c r="A15" s="6"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="8" t="s">
+      <c r="A16" s="6" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="12">
+      <c r="A17" s="10">
         <f>A14/34</f>
         <v>370.65749999999997</v>
       </c>
@@ -2398,7 +2359,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="14" t="s">
         <v>102</v>
       </c>
       <c r="B1" s="2">
@@ -2505,272 +2466,272 @@
       <c r="A2" t="s">
         <v>103</v>
       </c>
-      <c r="B2" s="8">
+      <c r="B2" s="6">
         <f>'Set Asides'!$A$21</f>
-        <v>1088266.382983</v>
-      </c>
-      <c r="C2" s="8">
+        <v>35105.367192999998</v>
+      </c>
+      <c r="C2" s="6">
         <f t="shared" ref="C2:AH2" si="0">$B2</f>
-        <v>1088266.382983</v>
-      </c>
-      <c r="D2" s="8">
+        <v>35105.367192999998</v>
+      </c>
+      <c r="D2" s="6">
         <f t="shared" si="0"/>
-        <v>1088266.382983</v>
-      </c>
-      <c r="E2" s="8">
+        <v>35105.367192999998</v>
+      </c>
+      <c r="E2" s="6">
         <f t="shared" si="0"/>
-        <v>1088266.382983</v>
-      </c>
-      <c r="F2" s="8">
+        <v>35105.367192999998</v>
+      </c>
+      <c r="F2" s="6">
         <f t="shared" si="0"/>
-        <v>1088266.382983</v>
-      </c>
-      <c r="G2" s="8">
+        <v>35105.367192999998</v>
+      </c>
+      <c r="G2" s="6">
         <f t="shared" si="0"/>
-        <v>1088266.382983</v>
-      </c>
-      <c r="H2" s="8">
+        <v>35105.367192999998</v>
+      </c>
+      <c r="H2" s="6">
         <f t="shared" si="0"/>
-        <v>1088266.382983</v>
-      </c>
-      <c r="I2" s="8">
+        <v>35105.367192999998</v>
+      </c>
+      <c r="I2" s="6">
         <f t="shared" si="0"/>
-        <v>1088266.382983</v>
-      </c>
-      <c r="J2" s="8">
+        <v>35105.367192999998</v>
+      </c>
+      <c r="J2" s="6">
         <f t="shared" si="0"/>
-        <v>1088266.382983</v>
-      </c>
-      <c r="K2" s="8">
+        <v>35105.367192999998</v>
+      </c>
+      <c r="K2" s="6">
         <f t="shared" si="0"/>
-        <v>1088266.382983</v>
-      </c>
-      <c r="L2" s="8">
+        <v>35105.367192999998</v>
+      </c>
+      <c r="L2" s="6">
         <f t="shared" si="0"/>
-        <v>1088266.382983</v>
-      </c>
-      <c r="M2" s="8">
+        <v>35105.367192999998</v>
+      </c>
+      <c r="M2" s="6">
         <f t="shared" si="0"/>
-        <v>1088266.382983</v>
-      </c>
-      <c r="N2" s="8">
+        <v>35105.367192999998</v>
+      </c>
+      <c r="N2" s="6">
         <f t="shared" si="0"/>
-        <v>1088266.382983</v>
-      </c>
-      <c r="O2" s="8">
+        <v>35105.367192999998</v>
+      </c>
+      <c r="O2" s="6">
         <f t="shared" si="0"/>
-        <v>1088266.382983</v>
-      </c>
-      <c r="P2" s="8">
+        <v>35105.367192999998</v>
+      </c>
+      <c r="P2" s="6">
         <f t="shared" si="0"/>
-        <v>1088266.382983</v>
-      </c>
-      <c r="Q2" s="8">
+        <v>35105.367192999998</v>
+      </c>
+      <c r="Q2" s="6">
         <f t="shared" si="0"/>
-        <v>1088266.382983</v>
-      </c>
-      <c r="R2" s="8">
+        <v>35105.367192999998</v>
+      </c>
+      <c r="R2" s="6">
         <f t="shared" si="0"/>
-        <v>1088266.382983</v>
-      </c>
-      <c r="S2" s="8">
+        <v>35105.367192999998</v>
+      </c>
+      <c r="S2" s="6">
         <f t="shared" si="0"/>
-        <v>1088266.382983</v>
-      </c>
-      <c r="T2" s="8">
+        <v>35105.367192999998</v>
+      </c>
+      <c r="T2" s="6">
         <f t="shared" si="0"/>
-        <v>1088266.382983</v>
-      </c>
-      <c r="U2" s="8">
+        <v>35105.367192999998</v>
+      </c>
+      <c r="U2" s="6">
         <f t="shared" si="0"/>
-        <v>1088266.382983</v>
-      </c>
-      <c r="V2" s="8">
+        <v>35105.367192999998</v>
+      </c>
+      <c r="V2" s="6">
         <f t="shared" si="0"/>
-        <v>1088266.382983</v>
-      </c>
-      <c r="W2" s="8">
+        <v>35105.367192999998</v>
+      </c>
+      <c r="W2" s="6">
         <f t="shared" si="0"/>
-        <v>1088266.382983</v>
-      </c>
-      <c r="X2" s="8">
+        <v>35105.367192999998</v>
+      </c>
+      <c r="X2" s="6">
         <f t="shared" si="0"/>
-        <v>1088266.382983</v>
-      </c>
-      <c r="Y2" s="8">
+        <v>35105.367192999998</v>
+      </c>
+      <c r="Y2" s="6">
         <f t="shared" si="0"/>
-        <v>1088266.382983</v>
-      </c>
-      <c r="Z2" s="8">
+        <v>35105.367192999998</v>
+      </c>
+      <c r="Z2" s="6">
         <f t="shared" si="0"/>
-        <v>1088266.382983</v>
-      </c>
-      <c r="AA2" s="8">
+        <v>35105.367192999998</v>
+      </c>
+      <c r="AA2" s="6">
         <f t="shared" si="0"/>
-        <v>1088266.382983</v>
-      </c>
-      <c r="AB2" s="8">
+        <v>35105.367192999998</v>
+      </c>
+      <c r="AB2" s="6">
         <f t="shared" si="0"/>
-        <v>1088266.382983</v>
-      </c>
-      <c r="AC2" s="8">
+        <v>35105.367192999998</v>
+      </c>
+      <c r="AC2" s="6">
         <f t="shared" si="0"/>
-        <v>1088266.382983</v>
-      </c>
-      <c r="AD2" s="8">
+        <v>35105.367192999998</v>
+      </c>
+      <c r="AD2" s="6">
         <f t="shared" si="0"/>
-        <v>1088266.382983</v>
-      </c>
-      <c r="AE2" s="8">
+        <v>35105.367192999998</v>
+      </c>
+      <c r="AE2" s="6">
         <f t="shared" si="0"/>
-        <v>1088266.382983</v>
-      </c>
-      <c r="AF2" s="8">
+        <v>35105.367192999998</v>
+      </c>
+      <c r="AF2" s="6">
         <f t="shared" si="0"/>
-        <v>1088266.382983</v>
-      </c>
-      <c r="AG2" s="8">
+        <v>35105.367192999998</v>
+      </c>
+      <c r="AG2" s="6">
         <f t="shared" si="0"/>
-        <v>1088266.382983</v>
-      </c>
-      <c r="AH2" s="8">
+        <v>35105.367192999998</v>
+      </c>
+      <c r="AH2" s="6">
         <f t="shared" si="0"/>
-        <v>1088266.382983</v>
+        <v>35105.367192999998</v>
       </c>
     </row>
     <row r="3" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>104</v>
       </c>
-      <c r="B3" s="8">
+      <c r="B3" s="6">
         <f>'Aff Ref'!A2</f>
         <v>1673789.1924749999</v>
       </c>
-      <c r="C3" s="8">
+      <c r="C3" s="6">
         <f t="shared" ref="C3:C7" si="1">$B3</f>
         <v>1673789.1924749999</v>
       </c>
-      <c r="D3" s="8">
+      <c r="D3" s="6">
         <f t="shared" ref="D3:M7" si="2">$B3</f>
         <v>1673789.1924749999</v>
       </c>
-      <c r="E3" s="8">
+      <c r="E3" s="6">
         <f t="shared" si="2"/>
         <v>1673789.1924749999</v>
       </c>
-      <c r="F3" s="8">
+      <c r="F3" s="6">
         <f t="shared" si="2"/>
         <v>1673789.1924749999</v>
       </c>
-      <c r="G3" s="8">
+      <c r="G3" s="6">
         <f t="shared" si="2"/>
         <v>1673789.1924749999</v>
       </c>
-      <c r="H3" s="8">
+      <c r="H3" s="6">
         <f t="shared" si="2"/>
         <v>1673789.1924749999</v>
       </c>
-      <c r="I3" s="8">
+      <c r="I3" s="6">
         <f t="shared" si="2"/>
         <v>1673789.1924749999</v>
       </c>
-      <c r="J3" s="8">
+      <c r="J3" s="6">
         <f t="shared" si="2"/>
         <v>1673789.1924749999</v>
       </c>
-      <c r="K3" s="8">
+      <c r="K3" s="6">
         <f t="shared" si="2"/>
         <v>1673789.1924749999</v>
       </c>
-      <c r="L3" s="8">
+      <c r="L3" s="6">
         <f t="shared" si="2"/>
         <v>1673789.1924749999</v>
       </c>
-      <c r="M3" s="8">
+      <c r="M3" s="6">
         <f t="shared" si="2"/>
         <v>1673789.1924749999</v>
       </c>
-      <c r="N3" s="8">
+      <c r="N3" s="6">
         <f t="shared" ref="N3:W7" si="3">$B3</f>
         <v>1673789.1924749999</v>
       </c>
-      <c r="O3" s="8">
+      <c r="O3" s="6">
         <f t="shared" si="3"/>
         <v>1673789.1924749999</v>
       </c>
-      <c r="P3" s="8">
+      <c r="P3" s="6">
         <f t="shared" si="3"/>
         <v>1673789.1924749999</v>
       </c>
-      <c r="Q3" s="8">
+      <c r="Q3" s="6">
         <f t="shared" si="3"/>
         <v>1673789.1924749999</v>
       </c>
-      <c r="R3" s="8">
+      <c r="R3" s="6">
         <f t="shared" si="3"/>
         <v>1673789.1924749999</v>
       </c>
-      <c r="S3" s="8">
+      <c r="S3" s="6">
         <f t="shared" si="3"/>
         <v>1673789.1924749999</v>
       </c>
-      <c r="T3" s="8">
+      <c r="T3" s="6">
         <f t="shared" si="3"/>
         <v>1673789.1924749999</v>
       </c>
-      <c r="U3" s="8">
+      <c r="U3" s="6">
         <f t="shared" si="3"/>
         <v>1673789.1924749999</v>
       </c>
-      <c r="V3" s="8">
+      <c r="V3" s="6">
         <f t="shared" si="3"/>
         <v>1673789.1924749999</v>
       </c>
-      <c r="W3" s="8">
+      <c r="W3" s="6">
         <f t="shared" si="3"/>
         <v>1673789.1924749999</v>
       </c>
-      <c r="X3" s="8">
+      <c r="X3" s="6">
         <f t="shared" ref="X3:AH7" si="4">$B3</f>
         <v>1673789.1924749999</v>
       </c>
-      <c r="Y3" s="8">
+      <c r="Y3" s="6">
         <f t="shared" si="4"/>
         <v>1673789.1924749999</v>
       </c>
-      <c r="Z3" s="8">
+      <c r="Z3" s="6">
         <f t="shared" si="4"/>
         <v>1673789.1924749999</v>
       </c>
-      <c r="AA3" s="8">
+      <c r="AA3" s="6">
         <f t="shared" si="4"/>
         <v>1673789.1924749999</v>
       </c>
-      <c r="AB3" s="8">
+      <c r="AB3" s="6">
         <f t="shared" si="4"/>
         <v>1673789.1924749999</v>
       </c>
-      <c r="AC3" s="8">
+      <c r="AC3" s="6">
         <f t="shared" si="4"/>
         <v>1673789.1924749999</v>
       </c>
-      <c r="AD3" s="8">
+      <c r="AD3" s="6">
         <f t="shared" si="4"/>
         <v>1673789.1924749999</v>
       </c>
-      <c r="AE3" s="8">
+      <c r="AE3" s="6">
         <f t="shared" si="4"/>
         <v>1673789.1924749999</v>
       </c>
-      <c r="AF3" s="8">
+      <c r="AF3" s="6">
         <f t="shared" si="4"/>
         <v>1673789.1924749999</v>
       </c>
-      <c r="AG3" s="8">
+      <c r="AG3" s="6">
         <f t="shared" si="4"/>
         <v>1673789.1924749999</v>
       </c>
-      <c r="AH3" s="8">
+      <c r="AH3" s="6">
         <f t="shared" si="4"/>
         <v>1673789.1924749999</v>
       </c>
@@ -2779,135 +2740,135 @@
       <c r="A4" t="s">
         <v>105</v>
       </c>
-      <c r="B4" s="8">
+      <c r="B4" s="6">
         <f>'Impr Forest Mgmt'!A25</f>
         <v>31285080.489006747</v>
       </c>
-      <c r="C4" s="8">
+      <c r="C4" s="6">
         <f t="shared" si="1"/>
         <v>31285080.489006747</v>
       </c>
-      <c r="D4" s="8">
+      <c r="D4" s="6">
         <f t="shared" si="2"/>
         <v>31285080.489006747</v>
       </c>
-      <c r="E4" s="8">
+      <c r="E4" s="6">
         <f t="shared" si="2"/>
         <v>31285080.489006747</v>
       </c>
-      <c r="F4" s="8">
+      <c r="F4" s="6">
         <f t="shared" si="2"/>
         <v>31285080.489006747</v>
       </c>
-      <c r="G4" s="8">
+      <c r="G4" s="6">
         <f t="shared" si="2"/>
         <v>31285080.489006747</v>
       </c>
-      <c r="H4" s="8">
+      <c r="H4" s="6">
         <f t="shared" si="2"/>
         <v>31285080.489006747</v>
       </c>
-      <c r="I4" s="8">
+      <c r="I4" s="6">
         <f t="shared" si="2"/>
         <v>31285080.489006747</v>
       </c>
-      <c r="J4" s="8">
+      <c r="J4" s="6">
         <f t="shared" si="2"/>
         <v>31285080.489006747</v>
       </c>
-      <c r="K4" s="8">
+      <c r="K4" s="6">
         <f t="shared" si="2"/>
         <v>31285080.489006747</v>
       </c>
-      <c r="L4" s="8">
+      <c r="L4" s="6">
         <f t="shared" si="2"/>
         <v>31285080.489006747</v>
       </c>
-      <c r="M4" s="8">
+      <c r="M4" s="6">
         <f t="shared" si="2"/>
         <v>31285080.489006747</v>
       </c>
-      <c r="N4" s="8">
+      <c r="N4" s="6">
         <f t="shared" si="3"/>
         <v>31285080.489006747</v>
       </c>
-      <c r="O4" s="8">
+      <c r="O4" s="6">
         <f t="shared" si="3"/>
         <v>31285080.489006747</v>
       </c>
-      <c r="P4" s="8">
+      <c r="P4" s="6">
         <f t="shared" si="3"/>
         <v>31285080.489006747</v>
       </c>
-      <c r="Q4" s="8">
+      <c r="Q4" s="6">
         <f t="shared" si="3"/>
         <v>31285080.489006747</v>
       </c>
-      <c r="R4" s="8">
+      <c r="R4" s="6">
         <f t="shared" si="3"/>
         <v>31285080.489006747</v>
       </c>
-      <c r="S4" s="8">
+      <c r="S4" s="6">
         <f t="shared" si="3"/>
         <v>31285080.489006747</v>
       </c>
-      <c r="T4" s="8">
+      <c r="T4" s="6">
         <f t="shared" si="3"/>
         <v>31285080.489006747</v>
       </c>
-      <c r="U4" s="8">
+      <c r="U4" s="6">
         <f t="shared" si="3"/>
         <v>31285080.489006747</v>
       </c>
-      <c r="V4" s="8">
+      <c r="V4" s="6">
         <f t="shared" si="3"/>
         <v>31285080.489006747</v>
       </c>
-      <c r="W4" s="8">
+      <c r="W4" s="6">
         <f t="shared" si="3"/>
         <v>31285080.489006747</v>
       </c>
-      <c r="X4" s="8">
+      <c r="X4" s="6">
         <f t="shared" si="4"/>
         <v>31285080.489006747</v>
       </c>
-      <c r="Y4" s="8">
+      <c r="Y4" s="6">
         <f t="shared" si="4"/>
         <v>31285080.489006747</v>
       </c>
-      <c r="Z4" s="8">
+      <c r="Z4" s="6">
         <f t="shared" si="4"/>
         <v>31285080.489006747</v>
       </c>
-      <c r="AA4" s="8">
+      <c r="AA4" s="6">
         <f t="shared" si="4"/>
         <v>31285080.489006747</v>
       </c>
-      <c r="AB4" s="8">
+      <c r="AB4" s="6">
         <f t="shared" si="4"/>
         <v>31285080.489006747</v>
       </c>
-      <c r="AC4" s="8">
+      <c r="AC4" s="6">
         <f t="shared" si="4"/>
         <v>31285080.489006747</v>
       </c>
-      <c r="AD4" s="8">
+      <c r="AD4" s="6">
         <f t="shared" si="4"/>
         <v>31285080.489006747</v>
       </c>
-      <c r="AE4" s="8">
+      <c r="AE4" s="6">
         <f t="shared" si="4"/>
         <v>31285080.489006747</v>
       </c>
-      <c r="AF4" s="8">
+      <c r="AF4" s="6">
         <f t="shared" si="4"/>
         <v>31285080.489006747</v>
       </c>
-      <c r="AG4" s="8">
+      <c r="AG4" s="6">
         <f t="shared" si="4"/>
         <v>31285080.489006747</v>
       </c>
-      <c r="AH4" s="8">
+      <c r="AH4" s="6">
         <f t="shared" si="4"/>
         <v>31285080.489006747</v>
       </c>
@@ -2916,135 +2877,135 @@
       <c r="A5" t="s">
         <v>106</v>
       </c>
-      <c r="B5" s="8">
+      <c r="B5" s="6">
         <f>'Avoided Def'!$A$8</f>
         <v>121951.2596</v>
       </c>
-      <c r="C5" s="8">
+      <c r="C5" s="6">
         <f t="shared" si="1"/>
         <v>121951.2596</v>
       </c>
-      <c r="D5" s="8">
+      <c r="D5" s="6">
         <f t="shared" si="2"/>
         <v>121951.2596</v>
       </c>
-      <c r="E5" s="8">
+      <c r="E5" s="6">
         <f t="shared" si="2"/>
         <v>121951.2596</v>
       </c>
-      <c r="F5" s="8">
+      <c r="F5" s="6">
         <f t="shared" si="2"/>
         <v>121951.2596</v>
       </c>
-      <c r="G5" s="8">
+      <c r="G5" s="6">
         <f t="shared" si="2"/>
         <v>121951.2596</v>
       </c>
-      <c r="H5" s="8">
+      <c r="H5" s="6">
         <f t="shared" si="2"/>
         <v>121951.2596</v>
       </c>
-      <c r="I5" s="8">
+      <c r="I5" s="6">
         <f t="shared" si="2"/>
         <v>121951.2596</v>
       </c>
-      <c r="J5" s="8">
+      <c r="J5" s="6">
         <f t="shared" si="2"/>
         <v>121951.2596</v>
       </c>
-      <c r="K5" s="8">
+      <c r="K5" s="6">
         <f t="shared" si="2"/>
         <v>121951.2596</v>
       </c>
-      <c r="L5" s="8">
+      <c r="L5" s="6">
         <f t="shared" si="2"/>
         <v>121951.2596</v>
       </c>
-      <c r="M5" s="8">
+      <c r="M5" s="6">
         <f t="shared" si="2"/>
         <v>121951.2596</v>
       </c>
-      <c r="N5" s="8">
+      <c r="N5" s="6">
         <f t="shared" si="3"/>
         <v>121951.2596</v>
       </c>
-      <c r="O5" s="8">
+      <c r="O5" s="6">
         <f t="shared" si="3"/>
         <v>121951.2596</v>
       </c>
-      <c r="P5" s="8">
+      <c r="P5" s="6">
         <f t="shared" si="3"/>
         <v>121951.2596</v>
       </c>
-      <c r="Q5" s="8">
+      <c r="Q5" s="6">
         <f t="shared" si="3"/>
         <v>121951.2596</v>
       </c>
-      <c r="R5" s="8">
+      <c r="R5" s="6">
         <f t="shared" si="3"/>
         <v>121951.2596</v>
       </c>
-      <c r="S5" s="8">
+      <c r="S5" s="6">
         <f t="shared" si="3"/>
         <v>121951.2596</v>
       </c>
-      <c r="T5" s="8">
+      <c r="T5" s="6">
         <f t="shared" si="3"/>
         <v>121951.2596</v>
       </c>
-      <c r="U5" s="8">
+      <c r="U5" s="6">
         <f t="shared" si="3"/>
         <v>121951.2596</v>
       </c>
-      <c r="V5" s="8">
+      <c r="V5" s="6">
         <f t="shared" si="3"/>
         <v>121951.2596</v>
       </c>
-      <c r="W5" s="8">
+      <c r="W5" s="6">
         <f t="shared" si="3"/>
         <v>121951.2596</v>
       </c>
-      <c r="X5" s="8">
+      <c r="X5" s="6">
         <f t="shared" si="4"/>
         <v>121951.2596</v>
       </c>
-      <c r="Y5" s="8">
+      <c r="Y5" s="6">
         <f t="shared" si="4"/>
         <v>121951.2596</v>
       </c>
-      <c r="Z5" s="8">
+      <c r="Z5" s="6">
         <f t="shared" si="4"/>
         <v>121951.2596</v>
       </c>
-      <c r="AA5" s="8">
+      <c r="AA5" s="6">
         <f t="shared" si="4"/>
         <v>121951.2596</v>
       </c>
-      <c r="AB5" s="8">
+      <c r="AB5" s="6">
         <f t="shared" si="4"/>
         <v>121951.2596</v>
       </c>
-      <c r="AC5" s="8">
+      <c r="AC5" s="6">
         <f t="shared" si="4"/>
         <v>121951.2596</v>
       </c>
-      <c r="AD5" s="8">
+      <c r="AD5" s="6">
         <f t="shared" si="4"/>
         <v>121951.2596</v>
       </c>
-      <c r="AE5" s="8">
+      <c r="AE5" s="6">
         <f t="shared" si="4"/>
         <v>121951.2596</v>
       </c>
-      <c r="AF5" s="8">
+      <c r="AF5" s="6">
         <f t="shared" si="4"/>
         <v>121951.2596</v>
       </c>
-      <c r="AG5" s="8">
+      <c r="AG5" s="6">
         <f t="shared" si="4"/>
         <v>121951.2596</v>
       </c>
-      <c r="AH5" s="8">
+      <c r="AH5" s="6">
         <f t="shared" si="4"/>
         <v>121951.2596</v>
       </c>
@@ -3053,135 +3014,135 @@
       <c r="A6" t="s">
         <v>107</v>
       </c>
-      <c r="B6" s="8">
+      <c r="B6" s="6">
         <f>'Peatland restoration'!A17</f>
         <v>370.65749999999997</v>
       </c>
-      <c r="C6" s="8">
+      <c r="C6" s="6">
         <f t="shared" si="1"/>
         <v>370.65749999999997</v>
       </c>
-      <c r="D6" s="8">
+      <c r="D6" s="6">
         <f t="shared" si="2"/>
         <v>370.65749999999997</v>
       </c>
-      <c r="E6" s="8">
+      <c r="E6" s="6">
         <f t="shared" si="2"/>
         <v>370.65749999999997</v>
       </c>
-      <c r="F6" s="8">
+      <c r="F6" s="6">
         <f t="shared" si="2"/>
         <v>370.65749999999997</v>
       </c>
-      <c r="G6" s="8">
+      <c r="G6" s="6">
         <f t="shared" si="2"/>
         <v>370.65749999999997</v>
       </c>
-      <c r="H6" s="8">
+      <c r="H6" s="6">
         <f t="shared" si="2"/>
         <v>370.65749999999997</v>
       </c>
-      <c r="I6" s="8">
+      <c r="I6" s="6">
         <f t="shared" si="2"/>
         <v>370.65749999999997</v>
       </c>
-      <c r="J6" s="8">
+      <c r="J6" s="6">
         <f t="shared" si="2"/>
         <v>370.65749999999997</v>
       </c>
-      <c r="K6" s="8">
+      <c r="K6" s="6">
         <f t="shared" si="2"/>
         <v>370.65749999999997</v>
       </c>
-      <c r="L6" s="8">
+      <c r="L6" s="6">
         <f t="shared" si="2"/>
         <v>370.65749999999997</v>
       </c>
-      <c r="M6" s="8">
+      <c r="M6" s="6">
         <f t="shared" si="2"/>
         <v>370.65749999999997</v>
       </c>
-      <c r="N6" s="8">
+      <c r="N6" s="6">
         <f t="shared" si="3"/>
         <v>370.65749999999997</v>
       </c>
-      <c r="O6" s="8">
+      <c r="O6" s="6">
         <f t="shared" si="3"/>
         <v>370.65749999999997</v>
       </c>
-      <c r="P6" s="8">
+      <c r="P6" s="6">
         <f t="shared" si="3"/>
         <v>370.65749999999997</v>
       </c>
-      <c r="Q6" s="8">
+      <c r="Q6" s="6">
         <f t="shared" si="3"/>
         <v>370.65749999999997</v>
       </c>
-      <c r="R6" s="8">
+      <c r="R6" s="6">
         <f t="shared" si="3"/>
         <v>370.65749999999997</v>
       </c>
-      <c r="S6" s="8">
+      <c r="S6" s="6">
         <f t="shared" si="3"/>
         <v>370.65749999999997</v>
       </c>
-      <c r="T6" s="8">
+      <c r="T6" s="6">
         <f t="shared" si="3"/>
         <v>370.65749999999997</v>
       </c>
-      <c r="U6" s="8">
+      <c r="U6" s="6">
         <f t="shared" si="3"/>
         <v>370.65749999999997</v>
       </c>
-      <c r="V6" s="8">
+      <c r="V6" s="6">
         <f t="shared" si="3"/>
         <v>370.65749999999997</v>
       </c>
-      <c r="W6" s="8">
+      <c r="W6" s="6">
         <f t="shared" si="3"/>
         <v>370.65749999999997</v>
       </c>
-      <c r="X6" s="8">
+      <c r="X6" s="6">
         <f t="shared" si="4"/>
         <v>370.65749999999997</v>
       </c>
-      <c r="Y6" s="8">
+      <c r="Y6" s="6">
         <f t="shared" si="4"/>
         <v>370.65749999999997</v>
       </c>
-      <c r="Z6" s="8">
+      <c r="Z6" s="6">
         <f t="shared" si="4"/>
         <v>370.65749999999997</v>
       </c>
-      <c r="AA6" s="8">
+      <c r="AA6" s="6">
         <f t="shared" si="4"/>
         <v>370.65749999999997</v>
       </c>
-      <c r="AB6" s="8">
+      <c r="AB6" s="6">
         <f t="shared" si="4"/>
         <v>370.65749999999997</v>
       </c>
-      <c r="AC6" s="8">
+      <c r="AC6" s="6">
         <f t="shared" si="4"/>
         <v>370.65749999999997</v>
       </c>
-      <c r="AD6" s="8">
+      <c r="AD6" s="6">
         <f t="shared" si="4"/>
         <v>370.65749999999997</v>
       </c>
-      <c r="AE6" s="8">
+      <c r="AE6" s="6">
         <f t="shared" si="4"/>
         <v>370.65749999999997</v>
       </c>
-      <c r="AF6" s="8">
+      <c r="AF6" s="6">
         <f t="shared" si="4"/>
         <v>370.65749999999997</v>
       </c>
-      <c r="AG6" s="8">
+      <c r="AG6" s="6">
         <f t="shared" si="4"/>
         <v>370.65749999999997</v>
       </c>
-      <c r="AH6" s="8">
+      <c r="AH6" s="6">
         <f t="shared" si="4"/>
         <v>370.65749999999997</v>
       </c>
@@ -3190,164 +3151,164 @@
       <c r="A7" t="s">
         <v>108</v>
       </c>
-      <c r="B7" s="8">
+      <c r="B7" s="6">
         <v>0</v>
       </c>
-      <c r="C7" s="8">
+      <c r="C7" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D7" s="8">
+      <c r="D7" s="6">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="E7" s="8">
+      <c r="E7" s="6">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F7" s="8">
+      <c r="F7" s="6">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G7" s="8">
+      <c r="G7" s="6">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="H7" s="8">
+      <c r="H7" s="6">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I7" s="8">
+      <c r="I7" s="6">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J7" s="8">
+      <c r="J7" s="6">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K7" s="8">
+      <c r="K7" s="6">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L7" s="8">
+      <c r="L7" s="6">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M7" s="8">
+      <c r="M7" s="6">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N7" s="8">
+      <c r="N7" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="O7" s="8">
+      <c r="O7" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="P7" s="8">
+      <c r="P7" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="Q7" s="8">
+      <c r="Q7" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="R7" s="8">
+      <c r="R7" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="S7" s="8">
+      <c r="S7" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="T7" s="8">
+      <c r="T7" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="U7" s="8">
+      <c r="U7" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="V7" s="8">
+      <c r="V7" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="W7" s="8">
+      <c r="W7" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="X7" s="8">
+      <c r="X7" s="6">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="Y7" s="8">
+      <c r="Y7" s="6">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="Z7" s="8">
+      <c r="Z7" s="6">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="AA7" s="8">
+      <c r="AA7" s="6">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="AB7" s="8">
+      <c r="AB7" s="6">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="AC7" s="8">
+      <c r="AC7" s="6">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="AD7" s="8">
+      <c r="AD7" s="6">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="AE7" s="8">
+      <c r="AE7" s="6">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="AF7" s="8">
+      <c r="AF7" s="6">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="AG7" s="8">
+      <c r="AG7" s="6">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="AH7" s="8">
+      <c r="AH7" s="6">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="B8" s="19"/>
+      <c r="B8" s="17"/>
     </row>
     <row r="9" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="B9" s="22"/>
+      <c r="B9" s="20"/>
     </row>
     <row r="10" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="B10" s="28"/>
+      <c r="B10" s="26"/>
     </row>
     <row r="11" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="B11" s="28"/>
+      <c r="B11" s="26"/>
     </row>
     <row r="12" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="B12" s="28"/>
+      <c r="B12" s="26"/>
     </row>
     <row r="13" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="B13" s="28"/>
+      <c r="B13" s="26"/>
     </row>
     <row r="14" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="B14" s="28"/>
+      <c r="B14" s="26"/>
     </row>
     <row r="15" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="B15" s="28"/>
+      <c r="B15" s="26"/>
     </row>
     <row r="16" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="B16" s="22"/>
+      <c r="B16" s="20"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3360,15 +3321,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010010EB76B7FE121F489C7B2A4727FCE3E9" ma:contentTypeVersion="21" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="b14dc5c440242a7f7d08dacad5c84df8">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="52604411-7aeb-406e-8b34-4ce79a7293cc" xmlns:ns3="de340059-046a-4f1a-8b62-ade039df3700" xmlns:ns4="d580559a-617d-4d7d-8fb9-71ff64b58360" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="71a713f9ca42e4f2f02aa83a9b465f65" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="52604411-7aeb-406e-8b34-4ce79a7293cc"/>
@@ -3634,6 +3586,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -3655,14 +3616,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B661E4AF-14CB-4572-9ABF-94EBD456A433}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A9755298-B1DE-45C7-9954-10ADFFF271F3}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3682,20 +3635,28 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B661E4AF-14CB-4572-9ABF-94EBD456A433}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{67DBDE92-93F9-4C35-ABA6-B9BBB4CED815}">
   <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="de340059-046a-4f1a-8b62-ade039df3700"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="d580559a-617d-4d7d-8fb9-71ff64b58360"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="52604411-7aeb-406e-8b34-4ce79a7293cc"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="d580559a-617d-4d7d-8fb9-71ff64b58360"/>
-    <ds:schemaRef ds:uri="de340059-046a-4f1a-8b62-ade039df3700"/>
-    <ds:schemaRef ds:uri="52604411-7aeb-406e-8b34-4ce79a7293cc"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/InputData/land/PLANAbPiaSY/Potential Land Area Newly Affected by Pol in a Single Yr.xlsx
+++ b/InputData/land/PLANAbPiaSY/Potential Land Area Newly Affected by Pol in a Single Yr.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://pembinainstitute.sharepoint.com/sites/PRO-EnergyPolicySimulator2021/Shared Documents/Research and Analysis/CANADA-inputData/land/PLANAbPiaSY/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="366" documentId="8_{74B7E32C-CC73-AD40-9E0E-6148B3B06460}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2AE22162-7865-4C87-A6ED-2C8F89B52589}"/>
+  <xr:revisionPtr revIDLastSave="368" documentId="8_{74B7E32C-CC73-AD40-9E0E-6148B3B06460}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{49EE8D24-7F9D-4390-852B-7A558F685AAB}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -660,14 +660,14 @@
     <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="9" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="15">
@@ -1842,7 +1842,7 @@
       <c r="F18" s="19"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="33">
+      <c r="A19" s="31">
         <v>0.02</v>
       </c>
       <c r="B19" t="s">
@@ -1935,7 +1935,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:J25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+    <sheetView zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
       <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
@@ -2046,13 +2046,13 @@
       </c>
     </row>
     <row r="17" spans="1:10" ht="51" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="31" t="s">
+      <c r="A17" s="32" t="s">
         <v>133</v>
       </c>
-      <c r="B17" s="31"/>
-      <c r="C17" s="31"/>
-      <c r="D17" s="31"/>
-      <c r="E17" s="31"/>
+      <c r="B17" s="32"/>
+      <c r="C17" s="32"/>
+      <c r="D17" s="32"/>
+      <c r="E17" s="32"/>
       <c r="F17" s="30" t="s">
         <v>130</v>
       </c>
@@ -2173,7 +2173,7 @@
       <c r="B8" s="12">
         <v>0.17</v>
       </c>
-      <c r="C8" s="32" t="s">
+      <c r="C8" s="33" t="s">
         <v>125</v>
       </c>
     </row>
@@ -2184,7 +2184,7 @@
       <c r="B9" s="12">
         <v>0.15</v>
       </c>
-      <c r="C9" s="32"/>
+      <c r="C9" s="33"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
@@ -2193,7 +2193,7 @@
       <c r="B10" s="12">
         <v>0.03</v>
       </c>
-      <c r="C10" s="32"/>
+      <c r="C10" s="33"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
@@ -2347,7 +2347,7 @@
   </sheetPr>
   <dimension ref="A1:AH16"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="O1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
@@ -3321,6 +3321,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010010EB76B7FE121F489C7B2A4727FCE3E9" ma:contentTypeVersion="21" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="b14dc5c440242a7f7d08dacad5c84df8">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="52604411-7aeb-406e-8b34-4ce79a7293cc" xmlns:ns3="de340059-046a-4f1a-8b62-ade039df3700" xmlns:ns4="d580559a-617d-4d7d-8fb9-71ff64b58360" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="71a713f9ca42e4f2f02aa83a9b465f65" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="52604411-7aeb-406e-8b34-4ce79a7293cc"/>
@@ -3586,15 +3595,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -3616,6 +3616,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B661E4AF-14CB-4572-9ABF-94EBD456A433}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A9755298-B1DE-45C7-9954-10ADFFF271F3}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3635,28 +3643,20 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B661E4AF-14CB-4572-9ABF-94EBD456A433}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{67DBDE92-93F9-4C35-ABA6-B9BBB4CED815}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="de340059-046a-4f1a-8b62-ade039df3700"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="d580559a-617d-4d7d-8fb9-71ff64b58360"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
     <ds:schemaRef ds:uri="52604411-7aeb-406e-8b34-4ce79a7293cc"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="de340059-046a-4f1a-8b62-ade039df3700"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="d580559a-617d-4d7d-8fb9-71ff64b58360"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>